--- a/src/main/resources/excel-import-loan/test-impoer-data-loan.xlsx
+++ b/src/main/resources/excel-import-loan/test-impoer-data-loan.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project-CMCITY\iwelfare-cm-city-service\src\main\resources\excel-import-loan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pele/job/icoop-cm/icoop-backend/src/main/resources/excel-import-loan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFC7AB5-6EBE-48DD-98CF-5107038E436A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E932118E-0995-C74B-B4AA-B010712EC9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
   <si>
     <t>หน่วยงาน*</t>
   </si>
@@ -166,6 +176,174 @@
   </si>
   <si>
     <t>05145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">งานบริหารทั่วไปเกี่ยวกับสาธารณสุข </t>
+  </si>
+  <si>
+    <t>03138</t>
+  </si>
+  <si>
+    <t>นายธนวัสส์ รุ่งสว่าง</t>
+  </si>
+  <si>
+    <t>งานบริหารทั่วไปเกี่ยวกับสาธารณสุข</t>
+  </si>
+  <si>
+    <t>03580</t>
+  </si>
+  <si>
+    <t>นายธีระยุทธ ณ เชียงใหม่</t>
+  </si>
+  <si>
+    <t>03768</t>
+  </si>
+  <si>
+    <t>นายจตุพล แมนเมธี</t>
+  </si>
+  <si>
+    <t>04483</t>
+  </si>
+  <si>
+    <t>04964</t>
+  </si>
+  <si>
+    <t>05279</t>
+  </si>
+  <si>
+    <t>04263</t>
+  </si>
+  <si>
+    <t>งานบริหารงานคลัง</t>
+  </si>
+  <si>
+    <t>04460</t>
+  </si>
+  <si>
+    <t>นางจันทร์คำ จันต๊ะนาเขต</t>
+  </si>
+  <si>
+    <t>งานบริหารทั่วไปเกี่ยวกับการศึกษา</t>
+  </si>
+  <si>
+    <t>04708</t>
+  </si>
+  <si>
+    <t>นายฐิติปฐม หิรัญพันธุ์</t>
+  </si>
+  <si>
+    <t>04921</t>
+  </si>
+  <si>
+    <t>นายจิรพงษ์ ปันศิริ</t>
+  </si>
+  <si>
+    <t>04955</t>
+  </si>
+  <si>
+    <t>นายชัยธวัช เดิมประพันธ์</t>
+  </si>
+  <si>
+    <t>04992</t>
+  </si>
+  <si>
+    <t>นายภัทรกฤต วงศ์บุญนาค</t>
+  </si>
+  <si>
+    <t>04758</t>
+  </si>
+  <si>
+    <t>05263</t>
+  </si>
+  <si>
+    <t>03884</t>
+  </si>
+  <si>
+    <t>03937</t>
+  </si>
+  <si>
+    <t>05390</t>
+  </si>
+  <si>
+    <t>05306</t>
+  </si>
+  <si>
+    <t>04993</t>
+  </si>
+  <si>
+    <t>04901</t>
+  </si>
+  <si>
+    <t>งานบริหารทั่วไปเกี่ยวกับอุตสาหกรรมและการโยธา</t>
+  </si>
+  <si>
+    <t>05090</t>
+  </si>
+  <si>
+    <t>นางสุกัญญา ชุมยวง</t>
+  </si>
+  <si>
+    <t>05228</t>
+  </si>
+  <si>
+    <t>น.ส.ดวงเดือน ปัญญาเสน</t>
+  </si>
+  <si>
+    <t>05361</t>
+  </si>
+  <si>
+    <t>น.ส.ชัญญารินทร์ ไชยะ</t>
+  </si>
+  <si>
+    <t>05370</t>
+  </si>
+  <si>
+    <t>นายอิทธิพล วงศ์ชมภู</t>
+  </si>
+  <si>
+    <t>งานบริหารทั่วไปเกี่ยวกับเคหะและชุมชน</t>
+  </si>
+  <si>
+    <t>05393</t>
+  </si>
+  <si>
+    <t>นายธวัตน์ ดวงฤทธิ์</t>
+  </si>
+  <si>
+    <t>05435</t>
+  </si>
+  <si>
+    <t>นายวีรัตน์ ชัยยา</t>
+  </si>
+  <si>
+    <t>01335</t>
+  </si>
+  <si>
+    <t>05183</t>
+  </si>
+  <si>
+    <t>03690</t>
+  </si>
+  <si>
+    <t>04811</t>
+  </si>
+  <si>
+    <t>04545</t>
+  </si>
+  <si>
+    <t>03660</t>
+  </si>
+  <si>
+    <t>03177</t>
+  </si>
+  <si>
+    <t>05392</t>
+  </si>
+  <si>
+    <t>04121</t>
+  </si>
+  <si>
+    <t>05268</t>
   </si>
 </sst>
 </file>
@@ -503,34 +681,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" customWidth="1"/>
+    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" ht="27" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -595,341 +773,1247 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1">
+    <row r="2" spans="1:22" ht="27" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
-        <v>10878</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3294</v>
-      </c>
-      <c r="G2" s="1">
-        <v>14172</v>
-      </c>
-      <c r="H2" s="1">
-        <v>880000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>72</v>
-      </c>
-      <c r="J2" s="1">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3294</v>
-      </c>
-      <c r="N2" s="1">
-        <v>10878</v>
-      </c>
-      <c r="O2" s="1">
-        <v>60</v>
-      </c>
-      <c r="P2" s="1">
-        <v>14085</v>
+      <c r="E2">
+        <v>984</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>1034</v>
+      </c>
+      <c r="H2">
+        <v>15000</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2">
+        <v>50</v>
+      </c>
+      <c r="N2">
+        <v>984</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>1023</v>
       </c>
       <c r="Q2" s="1">
         <v>2</v>
       </c>
-      <c r="R2" s="1">
-        <v>7072</v>
-      </c>
-      <c r="S2" s="1">
-        <v>133285</v>
-      </c>
-      <c r="T2" s="1">
-        <v>21272</v>
-      </c>
-      <c r="U2" s="1">
-        <v>858728</v>
+      <c r="R2">
+        <v>118</v>
+      </c>
+      <c r="S2">
+        <v>385</v>
+      </c>
+      <c r="T2">
+        <v>1950</v>
+      </c>
+      <c r="U2">
+        <v>13050</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="23.25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:22" ht="24" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>13167</v>
+        <v>10878</v>
       </c>
       <c r="F3" s="1">
-        <v>1818</v>
+        <v>3294</v>
       </c>
       <c r="G3" s="1">
-        <v>14985</v>
+        <v>14172</v>
       </c>
       <c r="H3" s="1">
-        <v>500000</v>
+        <v>880000</v>
       </c>
       <c r="I3" s="1">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="J3" s="1">
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1">
-        <v>1818</v>
+        <v>3294</v>
       </c>
       <c r="N3" s="1">
-        <v>13167</v>
+        <v>10878</v>
       </c>
       <c r="O3" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P3" s="1">
-        <v>14875</v>
+        <v>14085</v>
       </c>
       <c r="Q3" s="1">
         <v>2</v>
       </c>
       <c r="R3" s="1">
-        <v>3992</v>
+        <v>7072</v>
       </c>
       <c r="S3" s="1">
-        <v>35422</v>
+        <v>133285</v>
       </c>
       <c r="T3" s="1">
-        <v>25980</v>
+        <v>21272</v>
       </c>
       <c r="U3" s="1">
-        <v>474021</v>
-      </c>
-      <c r="V3" t="s">
-        <v>31</v>
+        <v>858728</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
+    <row r="4" spans="1:22" ht="24" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>2783</v>
+        <v>3868</v>
       </c>
       <c r="F4" s="1">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="G4" s="1">
-        <v>4327</v>
+        <v>4606</v>
       </c>
       <c r="H4" s="1">
-        <v>408000</v>
+        <v>200000</v>
       </c>
       <c r="I4" s="1">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="J4" s="1">
         <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M4" s="1">
-        <v>1544</v>
+        <v>738</v>
       </c>
       <c r="N4" s="1">
-        <v>2783</v>
+        <v>3868</v>
       </c>
       <c r="O4" s="1">
         <v>19</v>
       </c>
       <c r="P4" s="1">
-        <v>4391</v>
+        <v>4559</v>
       </c>
       <c r="Q4" s="1">
         <v>2</v>
       </c>
       <c r="R4" s="1">
-        <v>3290</v>
+        <v>1606</v>
       </c>
       <c r="S4" s="1">
-        <v>108035</v>
+        <v>19458</v>
       </c>
       <c r="T4" s="1">
-        <v>5368</v>
+        <v>7614</v>
       </c>
       <c r="U4" s="1">
-        <v>402634</v>
-      </c>
-      <c r="V4" t="s">
-        <v>31</v>
+        <v>192390</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:22" ht="24" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8397</v>
+      </c>
+      <c r="F5" s="1">
+        <v>597</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8994</v>
+      </c>
+      <c r="H5" s="1">
+        <v>205000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="1">
+        <v>597</v>
+      </c>
+      <c r="N5" s="1">
+        <v>8397</v>
+      </c>
+      <c r="O5" s="1">
         <v>38</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1503</v>
-      </c>
-      <c r="F5" s="1">
-        <v>733</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2236</v>
-      </c>
-      <c r="H5" s="1">
-        <v>194100</v>
-      </c>
-      <c r="I5" s="1">
-        <v>108</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="1">
-        <v>733</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1503</v>
-      </c>
-      <c r="O5" s="1">
-        <v>9</v>
-      </c>
       <c r="P5" s="1">
-        <v>2163</v>
+        <v>2685</v>
       </c>
       <c r="Q5" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R5" s="1">
-        <v>1569</v>
+        <v>4650</v>
       </c>
       <c r="S5" s="1">
-        <v>45761</v>
+        <v>38566</v>
       </c>
       <c r="T5" s="1">
-        <v>2915</v>
+        <v>49314</v>
       </c>
       <c r="U5" s="1">
-        <v>191191</v>
-      </c>
-      <c r="V5" t="s">
-        <v>31</v>
+        <v>155686</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="23.25" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:22" ht="24" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>4434</v>
+        <v>13167</v>
       </c>
       <c r="F6" s="1">
-        <v>2460</v>
+        <v>1818</v>
       </c>
       <c r="G6" s="1">
-        <v>6894</v>
+        <v>14985</v>
       </c>
       <c r="H6" s="1">
-        <v>650000</v>
+        <v>500000</v>
       </c>
       <c r="I6" s="1">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1">
         <v>5</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M6" s="1">
-        <v>2460</v>
+        <v>1818</v>
       </c>
       <c r="N6" s="1">
-        <v>4434</v>
+        <v>13167</v>
       </c>
       <c r="O6" s="1">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="P6" s="1">
-        <v>6914</v>
+        <v>14875</v>
       </c>
       <c r="Q6" s="1">
         <v>2</v>
       </c>
       <c r="R6" s="1">
-        <v>5237</v>
+        <v>3992</v>
       </c>
       <c r="S6" s="1">
-        <v>172092</v>
+        <v>35422</v>
       </c>
       <c r="T6" s="1">
-        <v>8551</v>
+        <v>25980</v>
       </c>
       <c r="U6" s="1">
-        <v>641449</v>
+        <v>474021</v>
       </c>
       <c r="V6" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="24" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2783</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1544</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4327</v>
+      </c>
+      <c r="H7" s="1">
+        <v>408000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>120</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1544</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2783</v>
+      </c>
+      <c r="O7" s="1">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4391</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3290</v>
+      </c>
+      <c r="S7" s="1">
+        <v>108035</v>
+      </c>
+      <c r="T7" s="1">
+        <v>5368</v>
+      </c>
+      <c r="U7" s="1">
+        <v>402634</v>
+      </c>
+      <c r="V7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="24" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1503</v>
+      </c>
+      <c r="F8" s="1">
+        <v>733</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2236</v>
+      </c>
+      <c r="H8" s="1">
+        <v>194100</v>
+      </c>
+      <c r="I8" s="1">
+        <v>108</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="1">
+        <v>733</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1503</v>
+      </c>
+      <c r="O8" s="1">
+        <v>9</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2163</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1569</v>
+      </c>
+      <c r="S8" s="1">
+        <v>45761</v>
+      </c>
+      <c r="T8" s="1">
+        <v>2915</v>
+      </c>
+      <c r="U8" s="1">
+        <v>191191</v>
+      </c>
+      <c r="V8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="24" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4567</v>
+      </c>
+      <c r="F9" s="1">
+        <v>514</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5081</v>
+      </c>
+      <c r="H9" s="1">
+        <v>143000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="1">
+        <v>514</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4567</v>
+      </c>
+      <c r="O9" s="1">
+        <v>21</v>
+      </c>
+      <c r="P9" s="1">
+        <v>5030</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1138</v>
+      </c>
+      <c r="S9" s="1">
+        <v>8262</v>
+      </c>
+      <c r="T9" s="1">
+        <v>9024</v>
+      </c>
+      <c r="U9" s="1">
+        <v>133976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="24" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>829</v>
+      </c>
+      <c r="F10" s="1">
+        <v>427</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1256</v>
+      </c>
+      <c r="H10" s="1">
+        <v>113000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>113</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="1">
+        <v>427</v>
+      </c>
+      <c r="N10" s="1">
+        <v>829</v>
+      </c>
+      <c r="O10" s="1">
+        <v>5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1223</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>920</v>
+      </c>
+      <c r="S10" s="1">
+        <v>27990</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1612</v>
+      </c>
+      <c r="U10" s="1">
+        <v>111398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="24" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1586</v>
+      </c>
+      <c r="F11" s="1">
+        <v>880</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2466</v>
+      </c>
+      <c r="H11" s="1">
+        <v>232500</v>
+      </c>
+      <c r="I11" s="1">
+        <v>120</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="1">
+        <v>880</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1586</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2457</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1876</v>
+      </c>
+      <c r="S11" s="1">
+        <v>61548</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3062</v>
+      </c>
+      <c r="U11" s="1">
+        <v>229441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="24" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>982</v>
+      </c>
+      <c r="F12" s="1">
+        <v>545</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1527</v>
+      </c>
+      <c r="H12" s="1">
+        <v>144000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>120</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="1">
+        <v>545</v>
+      </c>
+      <c r="N12" s="1">
+        <v>982</v>
+      </c>
+      <c r="O12" s="1">
+        <v>7</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1576</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1170</v>
+      </c>
+      <c r="S12" s="1">
+        <v>38135</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1902</v>
+      </c>
+      <c r="U12" s="1">
+        <v>142107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="24" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1334</v>
+      </c>
+      <c r="F13" s="1">
+        <v>740</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2074</v>
+      </c>
+      <c r="H13" s="1">
+        <v>195500</v>
+      </c>
+      <c r="I13" s="1">
+        <v>120</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="1">
+        <v>740</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1334</v>
+      </c>
+      <c r="O13" s="1">
+        <v>9</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2005</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1580</v>
+      </c>
+      <c r="S13" s="1">
+        <v>51745</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2578</v>
+      </c>
+      <c r="U13" s="1">
+        <v>192927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="24" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4434</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2460</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6894</v>
+      </c>
+      <c r="H14" s="1">
+        <v>650000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>120</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2460</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4434</v>
+      </c>
+      <c r="O14" s="1">
+        <v>29</v>
+      </c>
+      <c r="P14" s="1">
+        <v>6914</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2</v>
+      </c>
+      <c r="R14" s="1">
+        <v>5237</v>
+      </c>
+      <c r="S14" s="1">
+        <v>172092</v>
+      </c>
+      <c r="T14" s="1">
+        <v>8551</v>
+      </c>
+      <c r="U14" s="1">
+        <v>641449</v>
+      </c>
+      <c r="V14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>6742</v>
+      </c>
+      <c r="F15">
+        <v>646</v>
+      </c>
+      <c r="G15">
+        <v>7388</v>
+      </c>
+      <c r="H15">
+        <v>181700</v>
+      </c>
+      <c r="I15">
+        <v>26</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15">
+        <v>646</v>
+      </c>
+      <c r="N15">
+        <v>6742</v>
+      </c>
+      <c r="O15">
+        <v>28</v>
+      </c>
+      <c r="P15">
+        <v>7350</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>1451</v>
+      </c>
+      <c r="S15">
+        <v>8934</v>
+      </c>
+      <c r="T15">
+        <v>13339</v>
+      </c>
+      <c r="U15">
+        <v>168368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1040</v>
+      </c>
+      <c r="F16">
+        <v>577</v>
+      </c>
+      <c r="G16">
+        <v>1617</v>
+      </c>
+      <c r="H16">
+        <v>152500</v>
+      </c>
+      <c r="I16">
+        <v>120</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16">
+        <v>577</v>
+      </c>
+      <c r="N16">
+        <v>1040</v>
+      </c>
+      <c r="O16">
+        <v>7</v>
+      </c>
+      <c r="P16">
+        <v>1696</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>1237</v>
+      </c>
+      <c r="S16">
+        <v>40397</v>
+      </c>
+      <c r="T16">
+        <v>2013</v>
+      </c>
+      <c r="U16">
+        <v>150495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>2472</v>
+      </c>
+      <c r="F17">
+        <v>96</v>
+      </c>
+      <c r="G17">
+        <v>2568</v>
+      </c>
+      <c r="H17">
+        <v>30000</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17">
+        <v>96</v>
+      </c>
+      <c r="N17">
+        <v>2472</v>
+      </c>
+      <c r="O17">
+        <v>11</v>
+      </c>
+      <c r="P17">
+        <v>2557</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>233</v>
+      </c>
+      <c r="S17">
+        <v>583</v>
+      </c>
+      <c r="T17">
+        <v>4903</v>
+      </c>
+      <c r="U17">
+        <v>25097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>893</v>
+      </c>
+      <c r="F18">
+        <v>262</v>
+      </c>
+      <c r="G18">
+        <v>1155</v>
+      </c>
+      <c r="H18">
+        <v>70000</v>
+      </c>
+      <c r="I18">
+        <v>70</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18">
+        <v>262</v>
+      </c>
+      <c r="N18">
+        <v>893</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>1141</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>573</v>
+      </c>
+      <c r="S18">
+        <v>10279</v>
+      </c>
+      <c r="T18">
+        <v>1759</v>
+      </c>
+      <c r="U18">
+        <v>68252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>904</v>
+      </c>
+      <c r="F19">
+        <v>235</v>
+      </c>
+      <c r="G19">
+        <v>1139</v>
+      </c>
+      <c r="H19">
+        <v>63000</v>
+      </c>
+      <c r="I19">
+        <v>63</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>235</v>
+      </c>
+      <c r="N19">
+        <v>904</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>1136</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>506</v>
+      </c>
+      <c r="S19">
+        <v>8253</v>
+      </c>
+      <c r="T19">
+        <v>1772</v>
+      </c>
+      <c r="U19">
+        <v>61228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>862</v>
+      </c>
+      <c r="F20">
+        <v>339</v>
+      </c>
+      <c r="G20">
+        <v>1201</v>
+      </c>
+      <c r="H20">
+        <v>90000</v>
+      </c>
+      <c r="I20">
+        <v>90</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20">
+        <v>339</v>
+      </c>
+      <c r="N20">
+        <v>862</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>1216</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>724</v>
+      </c>
+      <c r="S20">
+        <v>17386</v>
+      </c>
+      <c r="T20">
+        <v>1678</v>
+      </c>
+      <c r="U20">
+        <v>88322</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel-import-loan/test-impoer-data-loan.xlsx
+++ b/src/main/resources/excel-import-loan/test-impoer-data-loan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pele/job/icoop-cm/icoop-backend/src/main/resources/excel-import-loan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAB472B-2477-7C4B-9C00-50B72D44A586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1A02FB-7ED5-0642-831F-E935C45E6F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="186">
   <si>
     <t>หน่วยงาน*</t>
   </si>
@@ -344,6 +344,255 @@
   </si>
   <si>
     <t>05268</t>
+  </si>
+  <si>
+    <t>งานโรงพยาบาล</t>
+  </si>
+  <si>
+    <t>01707</t>
+  </si>
+  <si>
+    <t>นางกมลรัตน์ กิจบุญชู</t>
+  </si>
+  <si>
+    <t>02621</t>
+  </si>
+  <si>
+    <t>นายมานพ ฟักทอง</t>
+  </si>
+  <si>
+    <t>02628</t>
+  </si>
+  <si>
+    <t>นายบุญยโชติ เจริญชัย</t>
+  </si>
+  <si>
+    <t>03066</t>
+  </si>
+  <si>
+    <t>นายดวงจันทร์ อินสา</t>
+  </si>
+  <si>
+    <t>03368</t>
+  </si>
+  <si>
+    <t>น.ส.ภัทราวดี จอมนวล</t>
+  </si>
+  <si>
+    <t>03936</t>
+  </si>
+  <si>
+    <t>นางยุพิน ศิริวงค์</t>
+  </si>
+  <si>
+    <t>03992</t>
+  </si>
+  <si>
+    <t>น.ส.วรัญญา คูหาสวัสดี</t>
+  </si>
+  <si>
+    <t>04133</t>
+  </si>
+  <si>
+    <t>น.ส.จิตประภัทร์ วิชาเกวียน</t>
+  </si>
+  <si>
+    <t>04214</t>
+  </si>
+  <si>
+    <t>นายชัยยากร อินแดง</t>
+  </si>
+  <si>
+    <t>04424</t>
+  </si>
+  <si>
+    <t>นางสุภาพร แก้วสม</t>
+  </si>
+  <si>
+    <t>04788</t>
+  </si>
+  <si>
+    <t>นางปราณปราณี บุญปั๋น</t>
+  </si>
+  <si>
+    <t>04882</t>
+  </si>
+  <si>
+    <t>น.ส.ดรรชกร งามบุบผา</t>
+  </si>
+  <si>
+    <t>04974</t>
+  </si>
+  <si>
+    <t>น.ส.เยาวลักษณ์ เจริญทรัพย์</t>
+  </si>
+  <si>
+    <t>นายเชาว์เลิศ โกมาร</t>
+  </si>
+  <si>
+    <t>05026</t>
+  </si>
+  <si>
+    <t>นายวิทูร จักร์แก้ว</t>
+  </si>
+  <si>
+    <t>05028</t>
+  </si>
+  <si>
+    <t>น.ส.เพ็ญนภา มณีเลิศ</t>
+  </si>
+  <si>
+    <t>นายสยาม สุวรรณคฤหาสน์</t>
+  </si>
+  <si>
+    <t>05220</t>
+  </si>
+  <si>
+    <t>น.ส.เดือนเพ็ญ หอมจันทร์</t>
+  </si>
+  <si>
+    <t>05257</t>
+  </si>
+  <si>
+    <t>นายชัยพล ริญญา</t>
+  </si>
+  <si>
+    <t>นายบุญส่ง พระนม</t>
+  </si>
+  <si>
+    <t>05336</t>
+  </si>
+  <si>
+    <t>นายนิพนธ์ ชาวไร่</t>
+  </si>
+  <si>
+    <t>05369</t>
+  </si>
+  <si>
+    <t>นายนพดล บุญสม</t>
+  </si>
+  <si>
+    <t>05407</t>
+  </si>
+  <si>
+    <t>น.ส.กรรณิการ์ เกตุสุจา</t>
+  </si>
+  <si>
+    <t>05423</t>
+  </si>
+  <si>
+    <t>นายพิชญุตม์ ตั้งพานิชยกุล</t>
+  </si>
+  <si>
+    <t>05425</t>
+  </si>
+  <si>
+    <t>น.ส.ชญาณิศา สนินัด</t>
+  </si>
+  <si>
+    <t>05431</t>
+  </si>
+  <si>
+    <t>นายณัฐวุฒิ หาญไฟฟ้า</t>
+  </si>
+  <si>
+    <t>05441</t>
+  </si>
+  <si>
+    <t>นายกิตติคุณ ถาปินตา</t>
+  </si>
+  <si>
+    <t>งานวางแผนสถิติและวิชาการ</t>
+  </si>
+  <si>
+    <t>05445</t>
+  </si>
+  <si>
+    <t>นางณัฐกาญจ์ ธรรมกาศ</t>
+  </si>
+  <si>
+    <t>02841</t>
+  </si>
+  <si>
+    <t>05338</t>
+  </si>
+  <si>
+    <t>05385</t>
+  </si>
+  <si>
+    <t>04458</t>
+  </si>
+  <si>
+    <t>03014</t>
+  </si>
+  <si>
+    <t>04394</t>
+  </si>
+  <si>
+    <t>03153</t>
+  </si>
+  <si>
+    <t>03921</t>
+  </si>
+  <si>
+    <t>03549</t>
+  </si>
+  <si>
+    <t>05367</t>
+  </si>
+  <si>
+    <t>05085</t>
+  </si>
+  <si>
+    <t>04330</t>
+  </si>
+  <si>
+    <t>03949</t>
+  </si>
+  <si>
+    <t>04959</t>
+  </si>
+  <si>
+    <t>04232</t>
+  </si>
+  <si>
+    <t>05027</t>
+  </si>
+  <si>
+    <t>05222</t>
+  </si>
+  <si>
+    <t>05400</t>
+  </si>
+  <si>
+    <t>01877</t>
+  </si>
+  <si>
+    <t>05256</t>
+  </si>
+  <si>
+    <t>05291</t>
+  </si>
+  <si>
+    <t>04745</t>
+  </si>
+  <si>
+    <t>03412</t>
+  </si>
+  <si>
+    <t>04175</t>
+  </si>
+  <si>
+    <t>03875</t>
+  </si>
+  <si>
+    <t>04252</t>
+  </si>
+  <si>
+    <t>05424</t>
+  </si>
+  <si>
+    <t>05403</t>
   </si>
 </sst>
 </file>
@@ -365,14 +614,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Cordia New"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Cordia New"/>
       <family val="2"/>
@@ -401,9 +650,9 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -686,16 +935,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="89.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" style="1" customWidth="1"/>
@@ -715,1333 +964,3181 @@
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>984</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>50</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>1034</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="5">
         <v>15000</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>15</v>
       </c>
-      <c r="J2" s="2">
-        <v>5</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="J2" s="5">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="5">
         <v>50</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="5">
         <v>984</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="5">
         <v>4</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="5">
         <v>1023</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="5">
         <v>2</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="5">
         <v>118</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="5">
         <v>385</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="5">
         <v>1950</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="5">
         <v>13050</v>
       </c>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>10878</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>3294</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>14172</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="5">
         <v>880000</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>72</v>
       </c>
-      <c r="J3" s="2">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="5">
+        <v>5</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="5">
         <v>3294</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="5">
         <v>10878</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="5">
         <v>60</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="5">
         <v>14085</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="5">
         <v>2</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="5">
         <v>7072</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="5">
         <v>133285</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="5">
         <v>21272</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="5">
         <v>858728</v>
       </c>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>3868</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <v>738</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>4606</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <v>200000</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>48</v>
       </c>
-      <c r="J4" s="2">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="5">
+        <v>5</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="5">
         <v>738</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="5">
         <v>3868</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="5">
         <v>19</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="5">
         <v>4559</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="5">
         <v>2</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="5">
         <v>1606</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="5">
         <v>19458</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="5">
         <v>7614</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="5">
         <v>192390</v>
       </c>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>7</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>8397</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>597</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>8994</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <v>205000</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <v>24</v>
       </c>
-      <c r="J5" s="2">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="5">
         <v>597</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="5">
         <v>8397</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="5">
         <v>38</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="5">
         <v>2685</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="5">
         <v>6</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="5">
         <v>4650</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="5">
         <v>38566</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="5">
         <v>49314</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="5">
         <v>155686</v>
       </c>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>13167</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="5">
         <v>1818</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>14985</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="5">
         <v>500000</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>36</v>
       </c>
-      <c r="J6" s="2">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="5">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="5">
         <v>1818</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="5">
         <v>13167</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="5">
         <v>63</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="5">
         <v>14875</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="5">
         <v>2</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="5">
         <v>3992</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="5">
         <v>35422</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="5">
         <v>25980</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="5">
         <v>474021</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>2783</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="5">
         <v>1544</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>4327</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <v>408000</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>120</v>
       </c>
-      <c r="J7" s="2">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="5">
         <v>1544</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="5">
         <v>2783</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="5">
         <v>19</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="5">
         <v>4391</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="5">
         <v>2</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="5">
         <v>3290</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="5">
         <v>108035</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="5">
         <v>5368</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="5">
         <v>402634</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>1503</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <v>733</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>2236</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="5">
         <v>194100</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>108</v>
       </c>
-      <c r="J8" s="2">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="5">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="5">
         <v>733</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="5">
         <v>1503</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="5">
         <v>9</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="5">
         <v>2163</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="5">
         <v>2</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="5">
         <v>1569</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="5">
         <v>45761</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="5">
         <v>2915</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="5">
         <v>191191</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="V8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>4567</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
         <v>514</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>5081</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="5">
         <v>143000</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="5">
         <v>30</v>
       </c>
-      <c r="J9" s="2">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="J9" s="5">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5">
         <v>0</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="5">
         <v>0</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="5">
         <v>514</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="5">
         <v>4567</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="5">
         <v>21</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="5">
         <v>5030</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="5">
         <v>2</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="5">
         <v>1138</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="5">
         <v>8262</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="5">
         <v>9024</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="5">
         <v>133976</v>
       </c>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>829</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
         <v>427</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>1256</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="5">
         <v>113000</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="5">
         <v>113</v>
       </c>
-      <c r="J10" s="2">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="5">
+        <v>5</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="5">
         <v>427</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="5">
         <v>829</v>
       </c>
-      <c r="O10" s="2">
-        <v>5</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="O10" s="5">
+        <v>5</v>
+      </c>
+      <c r="P10" s="5">
         <v>1223</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="5">
         <v>2</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="5">
         <v>920</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="5">
         <v>27990</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="5">
         <v>1612</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="5">
         <v>111398</v>
       </c>
-      <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <v>1586</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <v>880</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>2466</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="5">
         <v>232500</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="5">
         <v>120</v>
       </c>
-      <c r="J11" s="2">
-        <v>5</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="5">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="5">
         <v>880</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="5">
         <v>1586</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="5">
         <v>10</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="5">
         <v>2457</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="5">
         <v>2</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="5">
         <v>1876</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="5">
         <v>61548</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="5">
         <v>3062</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="5">
         <v>229441</v>
       </c>
-      <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>982</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="5">
         <v>545</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>1527</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <v>144000</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="5">
         <v>120</v>
       </c>
-      <c r="J12" s="2">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="5">
+        <v>5</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="5">
         <v>545</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="5">
         <v>982</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="5">
         <v>7</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="5">
         <v>1576</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="5">
         <v>2</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="5">
         <v>1170</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="5">
         <v>38135</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="5">
         <v>1902</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="5">
         <v>142107</v>
       </c>
-      <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>3</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>1334</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="5">
         <v>740</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>2074</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="5">
         <v>195500</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="5">
         <v>120</v>
       </c>
-      <c r="J13" s="2">
-        <v>5</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="5">
+        <v>5</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="5">
         <v>740</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="5">
         <v>1334</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="5">
         <v>9</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="5">
         <v>2005</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="5">
         <v>2</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="5">
         <v>1580</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="5">
         <v>51745</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="5">
         <v>2578</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="5">
         <v>192927</v>
       </c>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="5">
         <v>4434</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <v>2460</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <v>6894</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="5">
         <v>650000</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="5">
         <v>120</v>
       </c>
-      <c r="J14" s="2">
-        <v>5</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="5">
+        <v>5</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="5">
         <v>2460</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="5">
         <v>4434</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="5">
         <v>29</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="5">
         <v>6914</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="5">
         <v>2</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="5">
         <v>5237</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="5">
         <v>172092</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="5">
         <v>8551</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="5">
         <v>641449</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="V14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>3</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="5">
         <v>6742</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="5">
         <v>646</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="5">
         <v>7388</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="5">
         <v>181700</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="5">
         <v>26</v>
       </c>
-      <c r="J15" s="2">
-        <v>5</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="5">
+        <v>5</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="5">
         <v>646</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="5">
         <v>6742</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="5">
         <v>28</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="5">
         <v>7350</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="5">
         <v>2</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="5">
         <v>1451</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="5">
         <v>8934</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="5">
         <v>13339</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="5">
         <v>168368</v>
       </c>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>3</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="5">
         <v>1040</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="5">
         <v>577</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>1617</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="5">
         <v>152500</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="5">
         <v>120</v>
       </c>
-      <c r="J16" s="2">
-        <v>5</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="5">
+        <v>5</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="5">
         <v>577</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="5">
         <v>1040</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="5">
         <v>7</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="5">
         <v>1696</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="5">
         <v>2</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="5">
         <v>1237</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="5">
         <v>40397</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="5">
         <v>2013</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="5">
         <v>150495</v>
       </c>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>3</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="5">
         <v>2472</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="5">
         <v>96</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="5">
         <v>2568</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="5">
         <v>30000</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="5">
         <v>12</v>
       </c>
-      <c r="J17" s="2">
-        <v>5</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="J17" s="5">
+        <v>5</v>
+      </c>
+      <c r="K17" s="5">
         <v>0</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="5">
         <v>0</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="5">
         <v>96</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="5">
         <v>2472</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="5">
         <v>11</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="5">
         <v>2557</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="5">
         <v>2</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="5">
         <v>233</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="5">
         <v>583</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="5">
         <v>4903</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="5">
         <v>25097</v>
       </c>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>3</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="5">
         <v>893</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="5">
         <v>262</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="5">
         <v>1155</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="5">
         <v>70000</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="5">
         <v>70</v>
       </c>
-      <c r="J18" s="2">
-        <v>5</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="5">
+        <v>5</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="5">
         <v>262</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="5">
         <v>893</v>
       </c>
-      <c r="O18" s="2">
-        <v>5</v>
-      </c>
-      <c r="P18" s="2">
+      <c r="O18" s="5">
+        <v>5</v>
+      </c>
+      <c r="P18" s="5">
         <v>1141</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="5">
         <v>2</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="5">
         <v>573</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="5">
         <v>10279</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="5">
         <v>1759</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="5">
         <v>68252</v>
       </c>
-      <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <v>3</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="5">
         <v>904</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="5">
         <v>235</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="5">
         <v>1139</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="5">
         <v>63000</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="5">
         <v>63</v>
       </c>
-      <c r="J19" s="2">
-        <v>5</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="5">
+        <v>5</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="5">
         <v>235</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="5">
         <v>904</v>
       </c>
-      <c r="O19" s="2">
-        <v>5</v>
-      </c>
-      <c r="P19" s="2">
+      <c r="O19" s="5">
+        <v>5</v>
+      </c>
+      <c r="P19" s="5">
         <v>1136</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="5">
         <v>2</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="5">
         <v>506</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="5">
         <v>8253</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="5">
         <v>1772</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="5">
         <v>61228</v>
       </c>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>3</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="5">
         <v>862</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="5">
         <v>339</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="5">
         <v>1201</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="5">
         <v>90000</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="5">
         <v>90</v>
       </c>
-      <c r="J20" s="2">
-        <v>5</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="5">
+        <v>5</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="5">
         <v>339</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="5">
         <v>862</v>
       </c>
-      <c r="O20" s="2">
-        <v>5</v>
-      </c>
-      <c r="P20" s="2">
+      <c r="O20" s="5">
+        <v>5</v>
+      </c>
+      <c r="P20" s="5">
         <v>1216</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="5">
         <v>2</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="5">
         <v>724</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="5">
         <v>17386</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="5">
         <v>1678</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="5">
         <v>88322</v>
       </c>
-      <c r="V20" s="2"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>4568</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1209</v>
+      </c>
+      <c r="G21" s="5">
+        <v>5777</v>
+      </c>
+      <c r="H21" s="5">
+        <v>319500</v>
+      </c>
+      <c r="I21" s="5">
+        <v>63</v>
+      </c>
+      <c r="J21" s="5">
+        <v>5</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1209</v>
+      </c>
+      <c r="N21" s="5">
+        <v>4568</v>
+      </c>
+      <c r="O21" s="5">
+        <v>24</v>
+      </c>
+      <c r="P21" s="5">
+        <v>5708</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>1</v>
+      </c>
+      <c r="R21" s="5">
+        <v>1357</v>
+      </c>
+      <c r="S21" s="5">
+        <v>43025</v>
+      </c>
+      <c r="T21" s="5">
+        <v>4420</v>
+      </c>
+      <c r="U21" s="5">
+        <v>315080</v>
+      </c>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2647</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1151</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3798</v>
+      </c>
+      <c r="H22" s="5">
+        <v>300000</v>
+      </c>
+      <c r="I22" s="5">
+        <v>96</v>
+      </c>
+      <c r="J22" s="5">
+        <v>5</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1151</v>
+      </c>
+      <c r="N22" s="5">
+        <v>2647</v>
+      </c>
+      <c r="O22" s="5">
+        <v>32</v>
+      </c>
+      <c r="P22" s="5">
+        <v>3733</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>19</v>
+      </c>
+      <c r="S22" s="5">
+        <v>64543</v>
+      </c>
+      <c r="T22" s="5">
+        <v>19</v>
+      </c>
+      <c r="U22" s="5">
+        <v>300000</v>
+      </c>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4226</v>
+      </c>
+      <c r="F23" s="5">
+        <v>620</v>
+      </c>
+      <c r="G23" s="5">
+        <v>4846</v>
+      </c>
+      <c r="H23" s="5">
+        <v>161700</v>
+      </c>
+      <c r="I23" s="5">
+        <v>36</v>
+      </c>
+      <c r="J23" s="5">
+        <v>5</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M23" s="5">
+        <v>620</v>
+      </c>
+      <c r="N23" s="5">
+        <v>4226</v>
+      </c>
+      <c r="O23" s="5">
+        <v>41</v>
+      </c>
+      <c r="P23" s="5">
+        <v>4803</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0</v>
+      </c>
+      <c r="R23" s="5">
+        <v>11</v>
+      </c>
+      <c r="S23" s="5">
+        <v>12713</v>
+      </c>
+      <c r="T23" s="5">
+        <v>11</v>
+      </c>
+      <c r="U23" s="5">
+        <v>161700</v>
+      </c>
+      <c r="V23" s="5"/>
+    </row>
+    <row r="24" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2353</v>
+      </c>
+      <c r="F24" s="5">
+        <v>656</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3009</v>
+      </c>
+      <c r="H24" s="5">
+        <v>171000</v>
+      </c>
+      <c r="I24" s="5">
+        <v>65</v>
+      </c>
+      <c r="J24" s="5">
+        <v>5</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>656</v>
+      </c>
+      <c r="N24" s="5">
+        <v>2353</v>
+      </c>
+      <c r="O24" s="5">
+        <v>25</v>
+      </c>
+      <c r="P24" s="5">
+        <v>2936</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5">
+        <v>20</v>
+      </c>
+      <c r="S24" s="5">
+        <v>24512</v>
+      </c>
+      <c r="T24" s="5">
+        <v>20</v>
+      </c>
+      <c r="U24" s="5">
+        <v>171000</v>
+      </c>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>945</v>
+      </c>
+      <c r="F25" s="5">
+        <v>535</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1480</v>
+      </c>
+      <c r="H25" s="5">
+        <v>139500</v>
+      </c>
+      <c r="I25" s="5">
+        <v>120</v>
+      </c>
+      <c r="J25" s="5">
+        <v>5</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M25" s="5">
+        <v>535</v>
+      </c>
+      <c r="N25" s="5">
+        <v>945</v>
+      </c>
+      <c r="O25" s="5">
+        <v>12</v>
+      </c>
+      <c r="P25" s="5">
+        <v>1394</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0</v>
+      </c>
+      <c r="R25" s="5">
+        <v>15</v>
+      </c>
+      <c r="S25" s="5">
+        <v>38014</v>
+      </c>
+      <c r="T25" s="5">
+        <v>15</v>
+      </c>
+      <c r="U25" s="5">
+        <v>139500</v>
+      </c>
+      <c r="V25" s="5"/>
+    </row>
+    <row r="26" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3487</v>
+      </c>
+      <c r="F26" s="5">
+        <v>681</v>
+      </c>
+      <c r="G26" s="5">
+        <v>4168</v>
+      </c>
+      <c r="H26" s="5">
+        <v>181000</v>
+      </c>
+      <c r="I26" s="5">
+        <v>48</v>
+      </c>
+      <c r="J26" s="5">
+        <v>5</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M26" s="5">
+        <v>681</v>
+      </c>
+      <c r="N26" s="5">
+        <v>3487</v>
+      </c>
+      <c r="O26" s="5">
+        <v>18</v>
+      </c>
+      <c r="P26" s="5">
+        <v>4150</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>1</v>
+      </c>
+      <c r="R26" s="5">
+        <v>769</v>
+      </c>
+      <c r="S26" s="5">
+        <v>18277</v>
+      </c>
+      <c r="T26" s="5">
+        <v>3399</v>
+      </c>
+      <c r="U26" s="5">
+        <v>177601</v>
+      </c>
+      <c r="V26" s="5"/>
+    </row>
+    <row r="27" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5">
+        <v>873</v>
+      </c>
+      <c r="F27" s="5">
+        <v>490</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1363</v>
+      </c>
+      <c r="H27" s="5">
+        <v>128500</v>
+      </c>
+      <c r="I27" s="5">
+        <v>120</v>
+      </c>
+      <c r="J27" s="5">
+        <v>5</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M27" s="5">
+        <v>490</v>
+      </c>
+      <c r="N27" s="5">
+        <v>873</v>
+      </c>
+      <c r="O27" s="5">
+        <v>6</v>
+      </c>
+      <c r="P27" s="5">
+        <v>1347</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>1</v>
+      </c>
+      <c r="R27" s="5">
+        <v>546</v>
+      </c>
+      <c r="S27" s="5">
+        <v>34498</v>
+      </c>
+      <c r="T27" s="5">
+        <v>817</v>
+      </c>
+      <c r="U27" s="5">
+        <v>127683</v>
+      </c>
+      <c r="V27" s="5"/>
+    </row>
+    <row r="28" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1202</v>
+      </c>
+      <c r="F28" s="5">
+        <v>675</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1877</v>
+      </c>
+      <c r="H28" s="5">
+        <v>177000</v>
+      </c>
+      <c r="I28" s="5">
+        <v>120</v>
+      </c>
+      <c r="J28" s="5">
+        <v>5</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>675</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1202</v>
+      </c>
+      <c r="O28" s="5">
+        <v>8</v>
+      </c>
+      <c r="P28" s="5">
+        <v>1934</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>1</v>
+      </c>
+      <c r="R28" s="5">
+        <v>752</v>
+      </c>
+      <c r="S28" s="5">
+        <v>47545</v>
+      </c>
+      <c r="T28" s="5">
+        <v>1125</v>
+      </c>
+      <c r="U28" s="5">
+        <v>175875</v>
+      </c>
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1164</v>
+      </c>
+      <c r="F29" s="5">
+        <v>660</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1824</v>
+      </c>
+      <c r="H29" s="5">
+        <v>172000</v>
+      </c>
+      <c r="I29" s="5">
+        <v>120</v>
+      </c>
+      <c r="J29" s="5">
+        <v>5</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" s="5">
+        <v>660</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1164</v>
+      </c>
+      <c r="O29" s="5">
+        <v>16</v>
+      </c>
+      <c r="P29" s="5">
+        <v>1850</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>0</v>
+      </c>
+      <c r="R29" s="5">
+        <v>9</v>
+      </c>
+      <c r="S29" s="5">
+        <v>46906</v>
+      </c>
+      <c r="T29" s="5">
+        <v>9</v>
+      </c>
+      <c r="U29" s="5">
+        <v>172000</v>
+      </c>
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1651</v>
+      </c>
+      <c r="F30" s="5">
+        <v>825</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2476</v>
+      </c>
+      <c r="H30" s="5">
+        <v>215000</v>
+      </c>
+      <c r="I30" s="5">
+        <v>108</v>
+      </c>
+      <c r="J30" s="5">
+        <v>5</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M30" s="5">
+        <v>825</v>
+      </c>
+      <c r="N30" s="5">
+        <v>1651</v>
+      </c>
+      <c r="O30" s="5">
+        <v>21</v>
+      </c>
+      <c r="P30" s="5">
+        <v>2464</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5">
+        <v>8</v>
+      </c>
+      <c r="S30" s="5">
+        <v>52396</v>
+      </c>
+      <c r="T30" s="5">
+        <v>8</v>
+      </c>
+      <c r="U30" s="5">
+        <v>215000</v>
+      </c>
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1096</v>
+      </c>
+      <c r="F31" s="5">
+        <v>621</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1717</v>
+      </c>
+      <c r="H31" s="5">
+        <v>161900</v>
+      </c>
+      <c r="I31" s="5">
+        <v>120</v>
+      </c>
+      <c r="J31" s="5">
+        <v>5</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="M31" s="5">
+        <v>621</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1096</v>
+      </c>
+      <c r="O31" s="5">
+        <v>15</v>
+      </c>
+      <c r="P31" s="5">
+        <v>1723</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5">
+        <v>10</v>
+      </c>
+      <c r="S31" s="5">
+        <v>44146</v>
+      </c>
+      <c r="T31" s="5">
+        <v>10</v>
+      </c>
+      <c r="U31" s="5">
+        <v>161900</v>
+      </c>
+      <c r="V31" s="5"/>
+    </row>
+    <row r="32" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1773</v>
+      </c>
+      <c r="F32" s="5">
+        <v>537</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2310</v>
+      </c>
+      <c r="H32" s="5">
+        <v>140000</v>
+      </c>
+      <c r="I32" s="5">
+        <v>70</v>
+      </c>
+      <c r="J32" s="5">
+        <v>5</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M32" s="5">
+        <v>537</v>
+      </c>
+      <c r="N32" s="5">
+        <v>1773</v>
+      </c>
+      <c r="O32" s="5">
+        <v>19</v>
+      </c>
+      <c r="P32" s="5">
+        <v>2277</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
+        <v>14</v>
+      </c>
+      <c r="S32" s="5">
+        <v>21667</v>
+      </c>
+      <c r="T32" s="5">
+        <v>14</v>
+      </c>
+      <c r="U32" s="5">
+        <v>140000</v>
+      </c>
+      <c r="V32" s="5"/>
+    </row>
+    <row r="33" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5">
+        <v>860</v>
+      </c>
+      <c r="F33" s="5">
+        <v>355</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1215</v>
+      </c>
+      <c r="H33" s="5">
+        <v>93500</v>
+      </c>
+      <c r="I33" s="5">
+        <v>93</v>
+      </c>
+      <c r="J33" s="5">
+        <v>5</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M33" s="5">
+        <v>355</v>
+      </c>
+      <c r="N33" s="5">
+        <v>860</v>
+      </c>
+      <c r="O33" s="5">
+        <v>5</v>
+      </c>
+      <c r="P33" s="5">
+        <v>1182</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>1</v>
+      </c>
+      <c r="R33" s="5">
+        <v>397</v>
+      </c>
+      <c r="S33" s="5">
+        <v>19065</v>
+      </c>
+      <c r="T33" s="5">
+        <v>818</v>
+      </c>
+      <c r="U33" s="5">
+        <v>92682</v>
+      </c>
+      <c r="V33" s="5"/>
+    </row>
+    <row r="34" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>995</v>
+      </c>
+      <c r="F34" s="5">
+        <v>564</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1559</v>
+      </c>
+      <c r="H34" s="5">
+        <v>147000</v>
+      </c>
+      <c r="I34" s="5">
+        <v>120</v>
+      </c>
+      <c r="J34" s="5">
+        <v>5</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M34" s="5">
+        <v>564</v>
+      </c>
+      <c r="N34" s="5">
+        <v>995</v>
+      </c>
+      <c r="O34" s="5">
+        <v>13</v>
+      </c>
+      <c r="P34" s="5">
+        <v>1556</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0</v>
+      </c>
+      <c r="R34" s="5">
+        <v>13</v>
+      </c>
+      <c r="S34" s="5">
+        <v>40077</v>
+      </c>
+      <c r="T34" s="5">
+        <v>13</v>
+      </c>
+      <c r="U34" s="5">
+        <v>147000</v>
+      </c>
+      <c r="V34" s="5"/>
+    </row>
+    <row r="35" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1107</v>
+      </c>
+      <c r="F35" s="5">
+        <v>504</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1611</v>
+      </c>
+      <c r="H35" s="5">
+        <v>131500</v>
+      </c>
+      <c r="I35" s="5">
+        <v>100</v>
+      </c>
+      <c r="J35" s="5">
+        <v>5</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="M35" s="5">
+        <v>504</v>
+      </c>
+      <c r="N35" s="5">
+        <v>1107</v>
+      </c>
+      <c r="O35" s="5">
+        <v>13</v>
+      </c>
+      <c r="P35" s="5">
+        <v>1545</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0</v>
+      </c>
+      <c r="R35" s="5">
+        <v>17</v>
+      </c>
+      <c r="S35" s="5">
+        <v>29534</v>
+      </c>
+      <c r="T35" s="5">
+        <v>17</v>
+      </c>
+      <c r="U35" s="5">
+        <v>131500</v>
+      </c>
+      <c r="V35" s="5"/>
+    </row>
+    <row r="36" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1282</v>
+      </c>
+      <c r="F36" s="5">
+        <v>517</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1799</v>
+      </c>
+      <c r="H36" s="5">
+        <v>134800</v>
+      </c>
+      <c r="I36" s="5">
+        <v>90</v>
+      </c>
+      <c r="J36" s="5">
+        <v>5</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M36" s="5">
+        <v>517</v>
+      </c>
+      <c r="N36" s="5">
+        <v>1282</v>
+      </c>
+      <c r="O36" s="5">
+        <v>15</v>
+      </c>
+      <c r="P36" s="5">
+        <v>1790</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0</v>
+      </c>
+      <c r="R36" s="5">
+        <v>16</v>
+      </c>
+      <c r="S36" s="5">
+        <v>27101</v>
+      </c>
+      <c r="T36" s="5">
+        <v>16</v>
+      </c>
+      <c r="U36" s="5">
+        <v>134800</v>
+      </c>
+      <c r="V36" s="5"/>
+    </row>
+    <row r="37" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>4740</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2685</v>
+      </c>
+      <c r="G37" s="5">
+        <v>7425</v>
+      </c>
+      <c r="H37" s="5">
+        <v>700000</v>
+      </c>
+      <c r="I37" s="5">
+        <v>120</v>
+      </c>
+      <c r="J37" s="5">
+        <v>5</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" s="5">
+        <v>2685</v>
+      </c>
+      <c r="N37" s="5">
+        <v>4740</v>
+      </c>
+      <c r="O37" s="5">
+        <v>62</v>
+      </c>
+      <c r="P37" s="5">
+        <v>7255</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0</v>
+      </c>
+      <c r="R37" s="5">
+        <v>7</v>
+      </c>
+      <c r="S37" s="5">
+        <v>190830</v>
+      </c>
+      <c r="T37" s="5">
+        <v>7</v>
+      </c>
+      <c r="U37" s="5">
+        <v>700000</v>
+      </c>
+      <c r="V37" s="5"/>
+    </row>
+    <row r="38" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5">
+        <v>896</v>
+      </c>
+      <c r="F38" s="5">
+        <v>250</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1146</v>
+      </c>
+      <c r="H38" s="5">
+        <v>66000</v>
+      </c>
+      <c r="I38" s="5">
+        <v>66</v>
+      </c>
+      <c r="J38" s="5">
+        <v>5</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M38" s="5">
+        <v>250</v>
+      </c>
+      <c r="N38" s="5">
+        <v>896</v>
+      </c>
+      <c r="O38" s="5">
+        <v>5</v>
+      </c>
+      <c r="P38" s="5">
+        <v>1126</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>1</v>
+      </c>
+      <c r="R38" s="5">
+        <v>280</v>
+      </c>
+      <c r="S38" s="5">
+        <v>9336</v>
+      </c>
+      <c r="T38" s="5">
+        <v>866</v>
+      </c>
+      <c r="U38" s="5">
+        <v>65134</v>
+      </c>
+      <c r="V38" s="5"/>
+    </row>
+    <row r="39" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5">
+        <v>993</v>
+      </c>
+      <c r="F39" s="5">
+        <v>311</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1304</v>
+      </c>
+      <c r="H39" s="5">
+        <v>81000</v>
+      </c>
+      <c r="I39" s="5">
+        <v>72</v>
+      </c>
+      <c r="J39" s="5">
+        <v>5</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M39" s="5">
+        <v>311</v>
+      </c>
+      <c r="N39" s="5">
+        <v>993</v>
+      </c>
+      <c r="O39" s="5">
+        <v>11</v>
+      </c>
+      <c r="P39" s="5">
+        <v>1328</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0</v>
+      </c>
+      <c r="R39" s="5">
+        <v>18</v>
+      </c>
+      <c r="S39" s="5">
+        <v>12912</v>
+      </c>
+      <c r="T39" s="5">
+        <v>18</v>
+      </c>
+      <c r="U39" s="5">
+        <v>81000</v>
+      </c>
+      <c r="V39" s="5"/>
+    </row>
+    <row r="40" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1083</v>
+      </c>
+      <c r="F40" s="5">
+        <v>614</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1697</v>
+      </c>
+      <c r="H40" s="5">
+        <v>160000</v>
+      </c>
+      <c r="I40" s="5">
+        <v>120</v>
+      </c>
+      <c r="J40" s="5">
+        <v>5</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M40" s="5">
+        <v>614</v>
+      </c>
+      <c r="N40" s="5">
+        <v>1083</v>
+      </c>
+      <c r="O40" s="5">
+        <v>14</v>
+      </c>
+      <c r="P40" s="5">
+        <v>1682</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>0</v>
+      </c>
+      <c r="R40" s="5">
+        <v>12</v>
+      </c>
+      <c r="S40" s="5">
+        <v>43625</v>
+      </c>
+      <c r="T40" s="5">
+        <v>12</v>
+      </c>
+      <c r="U40" s="5">
+        <v>160000</v>
+      </c>
+      <c r="V40" s="5"/>
+    </row>
+    <row r="41" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2</v>
+      </c>
+      <c r="E41" s="5">
+        <v>890</v>
+      </c>
+      <c r="F41" s="5">
+        <v>499</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1389</v>
+      </c>
+      <c r="H41" s="5">
+        <v>131000</v>
+      </c>
+      <c r="I41" s="5">
+        <v>120</v>
+      </c>
+      <c r="J41" s="5">
+        <v>5</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M41" s="5">
+        <v>499</v>
+      </c>
+      <c r="N41" s="5">
+        <v>890</v>
+      </c>
+      <c r="O41" s="5">
+        <v>6</v>
+      </c>
+      <c r="P41" s="5">
+        <v>1453</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>1</v>
+      </c>
+      <c r="R41" s="5">
+        <v>556</v>
+      </c>
+      <c r="S41" s="5">
+        <v>35188</v>
+      </c>
+      <c r="T41" s="5">
+        <v>833</v>
+      </c>
+      <c r="U41" s="5">
+        <v>130167</v>
+      </c>
+      <c r="V41" s="5"/>
+    </row>
+    <row r="42" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1307</v>
+      </c>
+      <c r="F42" s="5">
+        <v>192</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1499</v>
+      </c>
+      <c r="H42" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I42" s="5">
+        <v>36</v>
+      </c>
+      <c r="J42" s="5">
+        <v>5</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M42" s="5">
+        <v>192</v>
+      </c>
+      <c r="N42" s="5">
+        <v>1307</v>
+      </c>
+      <c r="O42" s="5">
+        <v>13</v>
+      </c>
+      <c r="P42" s="5">
+        <v>1465</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>0</v>
+      </c>
+      <c r="R42" s="5">
+        <v>5</v>
+      </c>
+      <c r="S42" s="5">
+        <v>3930</v>
+      </c>
+      <c r="T42" s="5">
+        <v>5</v>
+      </c>
+      <c r="U42" s="5">
+        <v>50000</v>
+      </c>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <v>942</v>
+      </c>
+      <c r="F43" s="5">
+        <v>430</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1372</v>
+      </c>
+      <c r="H43" s="5">
+        <v>112000</v>
+      </c>
+      <c r="I43" s="5">
+        <v>100</v>
+      </c>
+      <c r="J43" s="5">
+        <v>5</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M43" s="5">
+        <v>430</v>
+      </c>
+      <c r="N43" s="5">
+        <v>942</v>
+      </c>
+      <c r="O43" s="5">
+        <v>11</v>
+      </c>
+      <c r="P43" s="5">
+        <v>1322</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>0</v>
+      </c>
+      <c r="R43" s="5">
+        <v>1</v>
+      </c>
+      <c r="S43" s="5">
+        <v>25150</v>
+      </c>
+      <c r="T43" s="5">
+        <v>1</v>
+      </c>
+      <c r="U43" s="5">
+        <v>112000</v>
+      </c>
+      <c r="V43" s="5"/>
+    </row>
+    <row r="44" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
+        <v>918</v>
+      </c>
+      <c r="F44" s="5">
+        <v>192</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1110</v>
+      </c>
+      <c r="H44" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I44" s="5">
+        <v>50</v>
+      </c>
+      <c r="J44" s="5">
+        <v>5</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M44" s="5">
+        <v>192</v>
+      </c>
+      <c r="N44" s="5">
+        <v>918</v>
+      </c>
+      <c r="O44" s="5">
+        <v>8</v>
+      </c>
+      <c r="P44" s="5">
+        <v>1088</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>0</v>
+      </c>
+      <c r="R44" s="5">
+        <v>4</v>
+      </c>
+      <c r="S44" s="5">
+        <v>5478</v>
+      </c>
+      <c r="T44" s="5">
+        <v>4</v>
+      </c>
+      <c r="U44" s="5">
+        <v>50000</v>
+      </c>
+      <c r="V44" s="5"/>
+    </row>
+    <row r="45" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
+        <v>918</v>
+      </c>
+      <c r="F45" s="5">
+        <v>192</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1110</v>
+      </c>
+      <c r="H45" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I45" s="5">
+        <v>50</v>
+      </c>
+      <c r="J45" s="5">
+        <v>5</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="M45" s="5">
+        <v>192</v>
+      </c>
+      <c r="N45" s="5">
+        <v>918</v>
+      </c>
+      <c r="O45" s="5">
+        <v>8</v>
+      </c>
+      <c r="P45" s="5">
+        <v>1088</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>0</v>
+      </c>
+      <c r="R45" s="5">
+        <v>3</v>
+      </c>
+      <c r="S45" s="5">
+        <v>5478</v>
+      </c>
+      <c r="T45" s="5">
+        <v>3</v>
+      </c>
+      <c r="U45" s="5">
+        <v>50000</v>
+      </c>
+      <c r="V45" s="5"/>
+    </row>
+    <row r="46" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F46" s="5">
+        <v>192</v>
+      </c>
+      <c r="G46" s="5">
+        <v>2194</v>
+      </c>
+      <c r="H46" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I46" s="5">
+        <v>24</v>
+      </c>
+      <c r="J46" s="5">
+        <v>5</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M46" s="5">
+        <v>192</v>
+      </c>
+      <c r="N46" s="5">
+        <v>2002</v>
+      </c>
+      <c r="O46" s="5">
+        <v>18</v>
+      </c>
+      <c r="P46" s="5">
+        <v>2165</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>0</v>
+      </c>
+      <c r="R46" s="5">
+        <v>6</v>
+      </c>
+      <c r="S46" s="5">
+        <v>2627</v>
+      </c>
+      <c r="T46" s="5">
+        <v>6</v>
+      </c>
+      <c r="U46" s="5">
+        <v>50000</v>
+      </c>
+      <c r="V46" s="5"/>
+    </row>
+    <row r="47" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5">
+        <v>902</v>
+      </c>
+      <c r="F47" s="5">
+        <v>230</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1132</v>
+      </c>
+      <c r="H47" s="5">
+        <v>60000</v>
+      </c>
+      <c r="I47" s="5">
+        <v>60</v>
+      </c>
+      <c r="J47" s="5">
+        <v>5</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M47" s="5">
+        <v>230</v>
+      </c>
+      <c r="N47" s="5">
+        <v>902</v>
+      </c>
+      <c r="O47" s="5">
+        <v>10</v>
+      </c>
+      <c r="P47" s="5">
+        <v>1138</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>0</v>
+      </c>
+      <c r="R47" s="5">
+        <v>2</v>
+      </c>
+      <c r="S47" s="5">
+        <v>7926</v>
+      </c>
+      <c r="T47" s="5">
+        <v>2</v>
+      </c>
+      <c r="U47" s="5">
+        <v>60000</v>
+      </c>
+      <c r="V47" s="5"/>
+    </row>
+    <row r="48" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>813</v>
+      </c>
+      <c r="F48" s="5">
+        <v>460</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1273</v>
+      </c>
+      <c r="H48" s="5">
+        <v>120000</v>
+      </c>
+      <c r="I48" s="5">
+        <v>120</v>
+      </c>
+      <c r="J48" s="5">
+        <v>5</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M48" s="5">
+        <v>460</v>
+      </c>
+      <c r="N48" s="5">
+        <v>813</v>
+      </c>
+      <c r="O48" s="5">
+        <v>11</v>
+      </c>
+      <c r="P48" s="5">
+        <v>1223</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>0</v>
+      </c>
+      <c r="R48" s="5">
+        <v>0</v>
+      </c>
+      <c r="S48" s="5">
+        <v>32710</v>
+      </c>
+      <c r="T48" s="5">
+        <v>0</v>
+      </c>
+      <c r="U48" s="5">
+        <v>120000</v>
+      </c>
+      <c r="V48" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excel-import-loan/test-impoer-data-loan.xlsx
+++ b/src/main/resources/excel-import-loan/test-impoer-data-loan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pele/job/icoop-cm/icoop-backend/src/main/resources/excel-import-loan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1A02FB-7ED5-0642-831F-E935C45E6F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237604D4-4CBA-484F-8D8F-B5FAC3E1654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="169">
   <si>
     <t>หน่วยงาน*</t>
   </si>
@@ -469,48 +469,9 @@
     <t>05369</t>
   </si>
   <si>
-    <t>นายนพดล บุญสม</t>
-  </si>
-  <si>
-    <t>05407</t>
-  </si>
-  <si>
-    <t>น.ส.กรรณิการ์ เกตุสุจา</t>
-  </si>
-  <si>
-    <t>05423</t>
-  </si>
-  <si>
-    <t>นายพิชญุตม์ ตั้งพานิชยกุล</t>
-  </si>
-  <si>
-    <t>05425</t>
-  </si>
-  <si>
-    <t>น.ส.ชญาณิศา สนินัด</t>
-  </si>
-  <si>
-    <t>05431</t>
-  </si>
-  <si>
-    <t>นายณัฐวุฒิ หาญไฟฟ้า</t>
-  </si>
-  <si>
-    <t>05441</t>
-  </si>
-  <si>
-    <t>นายกิตติคุณ ถาปินตา</t>
-  </si>
-  <si>
-    <t>งานวางแผนสถิติและวิชาการ</t>
-  </si>
-  <si>
     <t>05445</t>
   </si>
   <si>
-    <t>นางณัฐกาญจ์ ธรรมกาศ</t>
-  </si>
-  <si>
     <t>02841</t>
   </si>
   <si>
@@ -581,18 +542,6 @@
   </si>
   <si>
     <t>04175</t>
-  </si>
-  <si>
-    <t>03875</t>
-  </si>
-  <si>
-    <t>04252</t>
-  </si>
-  <si>
-    <t>05424</t>
-  </si>
-  <si>
-    <t>05403</t>
   </si>
 </sst>
 </file>
@@ -659,7 +608,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -935,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2324,10 +2304,10 @@
         <v>5</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="M21" s="5">
         <v>1209</v>
@@ -2456,7 +2436,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>143</v>
@@ -2591,7 +2571,7 @@
         <v>116</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="M25" s="5">
         <v>535</v>
@@ -2654,10 +2634,10 @@
         <v>5</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="M26" s="5">
         <v>681</v>
@@ -2720,7 +2700,7 @@
         <v>5</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>112</v>
@@ -2852,7 +2832,7 @@
         <v>5</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>77</v>
@@ -2918,10 +2898,10 @@
         <v>5</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M30" s="5">
         <v>825</v>
@@ -2984,10 +2964,10 @@
         <v>5</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="M31" s="5">
         <v>621</v>
@@ -3050,10 +3030,10 @@
         <v>5</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M32" s="5">
         <v>537</v>
@@ -3116,10 +3096,10 @@
         <v>5</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M33" s="5">
         <v>355</v>
@@ -3251,7 +3231,7 @@
         <v>133</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="M35" s="5">
         <v>504</v>
@@ -3314,7 +3294,7 @@
         <v>5</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>131</v>
@@ -3446,10 +3426,10 @@
         <v>5</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="M38" s="5">
         <v>250</v>
@@ -3512,10 +3492,10 @@
         <v>5</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="M39" s="5">
         <v>311</v>
@@ -3578,10 +3558,10 @@
         <v>5</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="M40" s="5">
         <v>614</v>
@@ -3644,10 +3624,10 @@
         <v>5</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M41" s="5">
         <v>499</v>
@@ -3678,469 +3658,11 @@
       </c>
       <c r="V41" s="5"/>
     </row>
-    <row r="42" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1307</v>
-      </c>
-      <c r="F42" s="5">
-        <v>192</v>
-      </c>
-      <c r="G42" s="5">
-        <v>1499</v>
-      </c>
-      <c r="H42" s="5">
-        <v>50000</v>
-      </c>
-      <c r="I42" s="5">
-        <v>36</v>
-      </c>
-      <c r="J42" s="5">
-        <v>5</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="M42" s="5">
-        <v>192</v>
-      </c>
-      <c r="N42" s="5">
-        <v>1307</v>
-      </c>
-      <c r="O42" s="5">
-        <v>13</v>
-      </c>
-      <c r="P42" s="5">
-        <v>1465</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>0</v>
-      </c>
-      <c r="R42" s="5">
-        <v>5</v>
-      </c>
-      <c r="S42" s="5">
-        <v>3930</v>
-      </c>
-      <c r="T42" s="5">
-        <v>5</v>
-      </c>
-      <c r="U42" s="5">
-        <v>50000</v>
-      </c>
-      <c r="V42" s="5"/>
-    </row>
-    <row r="43" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="5">
-        <v>1</v>
-      </c>
-      <c r="E43" s="5">
-        <v>942</v>
-      </c>
-      <c r="F43" s="5">
-        <v>430</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1372</v>
-      </c>
-      <c r="H43" s="5">
-        <v>112000</v>
-      </c>
-      <c r="I43" s="5">
-        <v>100</v>
-      </c>
-      <c r="J43" s="5">
-        <v>5</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="M43" s="5">
-        <v>430</v>
-      </c>
-      <c r="N43" s="5">
-        <v>942</v>
-      </c>
-      <c r="O43" s="5">
-        <v>11</v>
-      </c>
-      <c r="P43" s="5">
-        <v>1322</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>0</v>
-      </c>
-      <c r="R43" s="5">
-        <v>1</v>
-      </c>
-      <c r="S43" s="5">
-        <v>25150</v>
-      </c>
-      <c r="T43" s="5">
-        <v>1</v>
-      </c>
-      <c r="U43" s="5">
-        <v>112000</v>
-      </c>
-      <c r="V43" s="5"/>
-    </row>
-    <row r="44" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
-      <c r="E44" s="5">
-        <v>918</v>
-      </c>
-      <c r="F44" s="5">
-        <v>192</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1110</v>
-      </c>
-      <c r="H44" s="5">
-        <v>50000</v>
-      </c>
-      <c r="I44" s="5">
-        <v>50</v>
-      </c>
-      <c r="J44" s="5">
-        <v>5</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="M44" s="5">
-        <v>192</v>
-      </c>
-      <c r="N44" s="5">
-        <v>918</v>
-      </c>
-      <c r="O44" s="5">
-        <v>8</v>
-      </c>
-      <c r="P44" s="5">
-        <v>1088</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>0</v>
-      </c>
-      <c r="R44" s="5">
-        <v>4</v>
-      </c>
-      <c r="S44" s="5">
-        <v>5478</v>
-      </c>
-      <c r="T44" s="5">
-        <v>4</v>
-      </c>
-      <c r="U44" s="5">
-        <v>50000</v>
-      </c>
-      <c r="V44" s="5"/>
-    </row>
-    <row r="45" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1</v>
-      </c>
-      <c r="E45" s="5">
-        <v>918</v>
-      </c>
-      <c r="F45" s="5">
-        <v>192</v>
-      </c>
-      <c r="G45" s="5">
-        <v>1110</v>
-      </c>
-      <c r="H45" s="5">
-        <v>50000</v>
-      </c>
-      <c r="I45" s="5">
-        <v>50</v>
-      </c>
-      <c r="J45" s="5">
-        <v>5</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="M45" s="5">
-        <v>192</v>
-      </c>
-      <c r="N45" s="5">
-        <v>918</v>
-      </c>
-      <c r="O45" s="5">
-        <v>8</v>
-      </c>
-      <c r="P45" s="5">
-        <v>1088</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>0</v>
-      </c>
-      <c r="R45" s="5">
-        <v>3</v>
-      </c>
-      <c r="S45" s="5">
-        <v>5478</v>
-      </c>
-      <c r="T45" s="5">
-        <v>3</v>
-      </c>
-      <c r="U45" s="5">
-        <v>50000</v>
-      </c>
-      <c r="V45" s="5"/>
-    </row>
-    <row r="46" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" s="5">
-        <v>1</v>
-      </c>
-      <c r="E46" s="5">
-        <v>2002</v>
-      </c>
-      <c r="F46" s="5">
-        <v>192</v>
-      </c>
-      <c r="G46" s="5">
-        <v>2194</v>
-      </c>
-      <c r="H46" s="5">
-        <v>50000</v>
-      </c>
-      <c r="I46" s="5">
-        <v>24</v>
-      </c>
-      <c r="J46" s="5">
-        <v>5</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M46" s="5">
-        <v>192</v>
-      </c>
-      <c r="N46" s="5">
-        <v>2002</v>
-      </c>
-      <c r="O46" s="5">
-        <v>18</v>
-      </c>
-      <c r="P46" s="5">
-        <v>2165</v>
-      </c>
-      <c r="Q46" s="5">
-        <v>0</v>
-      </c>
-      <c r="R46" s="5">
-        <v>6</v>
-      </c>
-      <c r="S46" s="5">
-        <v>2627</v>
-      </c>
-      <c r="T46" s="5">
-        <v>6</v>
-      </c>
-      <c r="U46" s="5">
-        <v>50000</v>
-      </c>
-      <c r="V46" s="5"/>
-    </row>
-    <row r="47" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="5">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5">
-        <v>902</v>
-      </c>
-      <c r="F47" s="5">
-        <v>230</v>
-      </c>
-      <c r="G47" s="5">
-        <v>1132</v>
-      </c>
-      <c r="H47" s="5">
-        <v>60000</v>
-      </c>
-      <c r="I47" s="5">
-        <v>60</v>
-      </c>
-      <c r="J47" s="5">
-        <v>5</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="M47" s="5">
-        <v>230</v>
-      </c>
-      <c r="N47" s="5">
-        <v>902</v>
-      </c>
-      <c r="O47" s="5">
-        <v>10</v>
-      </c>
-      <c r="P47" s="5">
-        <v>1138</v>
-      </c>
-      <c r="Q47" s="5">
-        <v>0</v>
-      </c>
-      <c r="R47" s="5">
-        <v>2</v>
-      </c>
-      <c r="S47" s="5">
-        <v>7926</v>
-      </c>
-      <c r="T47" s="5">
-        <v>2</v>
-      </c>
-      <c r="U47" s="5">
-        <v>60000</v>
-      </c>
-      <c r="V47" s="5"/>
-    </row>
-    <row r="48" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5">
-        <v>813</v>
-      </c>
-      <c r="F48" s="5">
-        <v>460</v>
-      </c>
-      <c r="G48" s="5">
-        <v>1273</v>
-      </c>
-      <c r="H48" s="5">
-        <v>120000</v>
-      </c>
-      <c r="I48" s="5">
-        <v>120</v>
-      </c>
-      <c r="J48" s="5">
-        <v>5</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M48" s="5">
-        <v>460</v>
-      </c>
-      <c r="N48" s="5">
-        <v>813</v>
-      </c>
-      <c r="O48" s="5">
-        <v>11</v>
-      </c>
-      <c r="P48" s="5">
-        <v>1223</v>
-      </c>
-      <c r="Q48" s="5">
-        <v>0</v>
-      </c>
-      <c r="R48" s="5">
-        <v>0</v>
-      </c>
-      <c r="S48" s="5">
-        <v>32710</v>
-      </c>
-      <c r="T48" s="5">
-        <v>0</v>
-      </c>
-      <c r="U48" s="5">
-        <v>120000</v>
-      </c>
-      <c r="V48" s="5"/>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/excel-import-loan/test-impoer-data-loan.xlsx
+++ b/src/main/resources/excel-import-loan/test-impoer-data-loan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pele/job/icoop-cm/icoop-backend/src/main/resources/excel-import-loan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237604D4-4CBA-484F-8D8F-B5FAC3E1654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D58E8B-D1A8-D84C-8AC8-571B2F97CD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="186">
   <si>
     <t>หน่วยงาน*</t>
   </si>
@@ -542,25 +542,70 @@
   </si>
   <si>
     <t>04175</t>
+  </si>
+  <si>
+    <t>นายนพดล บุญสม</t>
+  </si>
+  <si>
+    <t>05407</t>
+  </si>
+  <si>
+    <t>น.ส.กรรณิการ์ เกตุสุจา</t>
+  </si>
+  <si>
+    <t>05423</t>
+  </si>
+  <si>
+    <t>นายพิชญุตม์ ตั้งพานิชยกุล</t>
+  </si>
+  <si>
+    <t>05425</t>
+  </si>
+  <si>
+    <t>น.ส.ชญาณิศา สนินัด</t>
+  </si>
+  <si>
+    <t>05431</t>
+  </si>
+  <si>
+    <t>นายณัฐวุฒิ หาญไฟฟ้า</t>
+  </si>
+  <si>
+    <t>05441</t>
+  </si>
+  <si>
+    <t>นายกิตติคุณ ถาปินตา</t>
+  </si>
+  <si>
+    <t>งานวางแผนสถิติและวิชาการ</t>
+  </si>
+  <si>
+    <t>นางณัฐกาญจ์ ธรรมกาศ</t>
+  </si>
+  <si>
+    <t>03875</t>
+  </si>
+  <si>
+    <t>04252</t>
+  </si>
+  <si>
+    <t>05424</t>
+  </si>
+  <si>
+    <t>05403</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cordia New"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -596,19 +641,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -915,2753 +978,3172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Y39" sqref="Y39"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
-    <col min="9" max="12" width="8.83203125" style="1"/>
-    <col min="13" max="13" width="17.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="55.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="3" customWidth="1"/>
+    <col min="9" max="12" width="8.83203125" style="3"/>
+    <col min="13" max="13" width="17.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="3" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="16" style="3" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5"/>
-    </row>
-    <row r="2" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>984</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>50</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>1034</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>15000</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>15</v>
       </c>
-      <c r="J2" s="5">
-        <v>5</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="J2" s="3">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="3">
         <v>50</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <v>984</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="3">
         <v>4</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="3">
         <v>1023</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="3">
         <v>2</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="3">
         <v>118</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="3">
         <v>385</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="3">
         <v>1950</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="3">
         <v>13050</v>
       </c>
-      <c r="V2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>10878</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>3294</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>14172</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>880000</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>72</v>
       </c>
-      <c r="J3" s="5">
-        <v>5</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="3">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="3">
         <v>3294</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="3">
         <v>10878</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <v>60</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="3">
         <v>14085</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="3">
         <v>2</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="3">
         <v>7072</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="3">
         <v>133285</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="3">
         <v>21272</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="3">
         <v>858728</v>
       </c>
-      <c r="V3" s="5"/>
-    </row>
-    <row r="4" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>3868</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>738</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>4606</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>200000</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>48</v>
       </c>
-      <c r="J4" s="5">
-        <v>5</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="3">
         <v>738</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="3">
         <v>3868</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <v>19</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="3">
         <v>4559</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="3">
         <v>2</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="3">
         <v>1606</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="3">
         <v>19458</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="3">
         <v>7614</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="3">
         <v>192390</v>
       </c>
-      <c r="V4" s="5"/>
-    </row>
-    <row r="5" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>7</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>8397</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>597</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>8994</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>205000</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>24</v>
       </c>
-      <c r="J5" s="5">
-        <v>5</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="3">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="3">
         <v>597</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="3">
         <v>8397</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <v>38</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="3">
         <v>2685</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="3">
         <v>6</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="3">
         <v>4650</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="3">
         <v>38566</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="3">
         <v>49314</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="3">
         <v>155686</v>
       </c>
-      <c r="V5" s="5"/>
-    </row>
-    <row r="6" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>13167</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>1818</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>14985</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>500000</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>36</v>
       </c>
-      <c r="J6" s="5">
-        <v>5</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="3">
         <v>1818</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="3">
         <v>13167</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>63</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="3">
         <v>14875</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="3">
         <v>2</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="3">
         <v>3992</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="3">
         <v>35422</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="3">
         <v>25980</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="3">
         <v>474021</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>2783</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>1544</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>4327</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>408000</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>120</v>
       </c>
-      <c r="J7" s="5">
-        <v>5</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="3">
         <v>1544</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <v>2783</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>19</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="3">
         <v>4391</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="3">
         <v>2</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="3">
         <v>3290</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="3">
         <v>108035</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="3">
         <v>5368</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="3">
         <v>402634</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="V7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>1503</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>733</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>2236</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>194100</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>108</v>
       </c>
-      <c r="J8" s="5">
-        <v>5</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>733</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="3">
         <v>1503</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>9</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="3">
         <v>2163</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="3">
         <v>2</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="3">
         <v>1569</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="3">
         <v>45761</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="3">
         <v>2915</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="3">
         <v>191191</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>4567</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>514</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>5081</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>143000</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>30</v>
       </c>
-      <c r="J9" s="5">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="J9" s="3">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="3">
         <v>514</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="3">
         <v>4567</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>21</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="3">
         <v>5030</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="3">
         <v>2</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="3">
         <v>1138</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="3">
         <v>8262</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="3">
         <v>9024</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="3">
         <v>133976</v>
       </c>
-      <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>829</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>427</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>1256</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>113000</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>113</v>
       </c>
-      <c r="J10" s="5">
-        <v>5</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="J10" s="3">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="3">
         <v>427</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="3">
         <v>829</v>
       </c>
-      <c r="O10" s="5">
-        <v>5</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="O10" s="3">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1223</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="3">
         <v>2</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="3">
         <v>920</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="3">
         <v>27990</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="3">
         <v>1612</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="3">
         <v>111398</v>
       </c>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>1586</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>880</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>2466</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>232500</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>120</v>
       </c>
-      <c r="J11" s="5">
-        <v>5</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="J11" s="3">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="3">
         <v>880</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="3">
         <v>1586</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="3">
         <v>10</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="3">
         <v>2457</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="3">
         <v>2</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="3">
         <v>1876</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="3">
         <v>61548</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="3">
         <v>3062</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="3">
         <v>229441</v>
       </c>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>982</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>545</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>1527</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>144000</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>120</v>
       </c>
-      <c r="J12" s="5">
-        <v>5</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="J12" s="3">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="3">
         <v>545</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="3">
         <v>982</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <v>7</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="3">
         <v>1576</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="3">
         <v>2</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="3">
         <v>1170</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="3">
         <v>38135</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="3">
         <v>1902</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="3">
         <v>142107</v>
       </c>
-      <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>1334</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>740</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>2074</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>195500</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>120</v>
       </c>
-      <c r="J13" s="5">
-        <v>5</v>
-      </c>
-      <c r="K13" s="5" t="s">
+      <c r="J13" s="3">
+        <v>5</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="3">
         <v>740</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="3">
         <v>1334</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="3">
         <v>9</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="3">
         <v>2005</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="3">
         <v>2</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="3">
         <v>1580</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="3">
         <v>51745</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="3">
         <v>2578</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="3">
         <v>192927</v>
       </c>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>4434</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>2460</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>6894</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>650000</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>120</v>
       </c>
-      <c r="J14" s="5">
-        <v>5</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="J14" s="3">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="3">
         <v>2460</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="3">
         <v>4434</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="3">
         <v>29</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="3">
         <v>6914</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="3">
         <v>2</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="3">
         <v>5237</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="3">
         <v>172092</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="3">
         <v>8551</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="3">
         <v>641449</v>
       </c>
-      <c r="V14" s="5" t="s">
+      <c r="V14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>6742</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>646</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>7388</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>181700</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="3">
         <v>26</v>
       </c>
-      <c r="J15" s="5">
-        <v>5</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="J15" s="3">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="3">
         <v>646</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="3">
         <v>6742</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>28</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="3">
         <v>7350</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="3">
         <v>2</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="3">
         <v>1451</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="3">
         <v>8934</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="3">
         <v>13339</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="3">
         <v>168368</v>
       </c>
-      <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>1040</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>577</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>1617</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <v>152500</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="3">
         <v>120</v>
       </c>
-      <c r="J16" s="5">
-        <v>5</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="J16" s="3">
+        <v>5</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="3">
         <v>577</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="3">
         <v>1040</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="3">
         <v>7</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="3">
         <v>1696</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="3">
         <v>2</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="3">
         <v>1237</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="3">
         <v>40397</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="3">
         <v>2013</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="3">
         <v>150495</v>
       </c>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>2472</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>96</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>2568</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <v>30000</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="3">
         <v>12</v>
       </c>
-      <c r="J17" s="5">
-        <v>5</v>
-      </c>
-      <c r="K17" s="5">
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="3">
         <v>96</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="3">
         <v>2472</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="3">
         <v>11</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="3">
         <v>2557</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="3">
         <v>2</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="3">
         <v>233</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="3">
         <v>583</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="3">
         <v>4903</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="3">
         <v>25097</v>
       </c>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>893</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>262</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>1155</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>70000</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="3">
         <v>70</v>
       </c>
-      <c r="J18" s="5">
-        <v>5</v>
-      </c>
-      <c r="K18" s="5" t="s">
+      <c r="J18" s="3">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="3">
         <v>262</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="3">
         <v>893</v>
       </c>
-      <c r="O18" s="5">
-        <v>5</v>
-      </c>
-      <c r="P18" s="5">
+      <c r="O18" s="3">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>1141</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="3">
         <v>2</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="3">
         <v>573</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="3">
         <v>10279</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="3">
         <v>1759</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="3">
         <v>68252</v>
       </c>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>3</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>904</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>235</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>1139</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>63000</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>63</v>
       </c>
-      <c r="J19" s="5">
-        <v>5</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="J19" s="3">
+        <v>5</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="3">
         <v>235</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="3">
         <v>904</v>
       </c>
-      <c r="O19" s="5">
-        <v>5</v>
-      </c>
-      <c r="P19" s="5">
+      <c r="O19" s="3">
+        <v>5</v>
+      </c>
+      <c r="P19" s="3">
         <v>1136</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="3">
         <v>2</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="3">
         <v>506</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="3">
         <v>8253</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="3">
         <v>1772</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="3">
         <v>61228</v>
       </c>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>3</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>862</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>339</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>1201</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>90000</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <v>90</v>
       </c>
-      <c r="J20" s="5">
-        <v>5</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="J20" s="3">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="3">
         <v>339</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="3">
         <v>862</v>
       </c>
-      <c r="O20" s="5">
-        <v>5</v>
-      </c>
-      <c r="P20" s="5">
+      <c r="O20" s="3">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>1216</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="3">
         <v>2</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="3">
         <v>724</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="3">
         <v>17386</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="3">
         <v>1678</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="3">
         <v>88322</v>
       </c>
-      <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>4568</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>1209</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>5777</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>319500</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="3">
         <v>63</v>
       </c>
-      <c r="J21" s="5">
-        <v>5</v>
-      </c>
-      <c r="K21" s="5" t="s">
+      <c r="J21" s="3">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="3">
         <v>1209</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="3">
         <v>4568</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="3">
         <v>24</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="3">
         <v>5708</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="3">
         <v>1</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="3">
         <v>1357</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="3">
         <v>43025</v>
       </c>
-      <c r="T21" s="5">
+      <c r="T21" s="3">
         <v>4420</v>
       </c>
-      <c r="U21" s="5">
+      <c r="U21" s="3">
         <v>315080</v>
       </c>
-      <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>2647</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>1151</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>3798</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <v>300000</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="3">
         <v>96</v>
       </c>
-      <c r="J22" s="5">
-        <v>5</v>
-      </c>
-      <c r="K22" s="5">
+      <c r="J22" s="3">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="3">
         <v>1151</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="3">
         <v>2647</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="3">
         <v>32</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="3">
         <v>3733</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="3">
         <v>19</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="3">
         <v>64543</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="3">
         <v>19</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="3">
         <v>300000</v>
       </c>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>4226</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>620</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>4846</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <v>161700</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <v>36</v>
       </c>
-      <c r="J23" s="5">
-        <v>5</v>
-      </c>
-      <c r="K23" s="5" t="s">
+      <c r="J23" s="3">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="3">
         <v>620</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="3">
         <v>4226</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="3">
         <v>41</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="3">
         <v>4803</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="3">
         <v>0</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="3">
         <v>11</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="3">
         <v>12713</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="3">
         <v>11</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U23" s="3">
         <v>161700</v>
       </c>
-      <c r="V23" s="5"/>
-    </row>
-    <row r="24" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <v>2353</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="3">
         <v>656</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>3009</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="3">
         <v>171000</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="3">
         <v>65</v>
       </c>
-      <c r="J24" s="5">
-        <v>5</v>
-      </c>
-      <c r="K24" s="5">
+      <c r="J24" s="3">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="3">
         <v>656</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="3">
         <v>2353</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="3">
         <v>25</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="3">
         <v>2936</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="3">
         <v>20</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="3">
         <v>24512</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" s="3">
         <v>20</v>
       </c>
-      <c r="U24" s="5">
+      <c r="U24" s="3">
         <v>171000</v>
       </c>
-      <c r="V24" s="5"/>
-    </row>
-    <row r="25" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>945</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="3">
         <v>535</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>1480</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="3">
         <v>139500</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="3">
         <v>120</v>
       </c>
-      <c r="J25" s="5">
-        <v>5</v>
-      </c>
-      <c r="K25" s="5" t="s">
+      <c r="J25" s="3">
+        <v>5</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="3">
         <v>535</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="3">
         <v>945</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="3">
         <v>12</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="3">
         <v>1394</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="Q25" s="3">
         <v>0</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="3">
         <v>15</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25" s="3">
         <v>38014</v>
       </c>
-      <c r="T25" s="5">
+      <c r="T25" s="3">
         <v>15</v>
       </c>
-      <c r="U25" s="5">
+      <c r="U25" s="3">
         <v>139500</v>
       </c>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>2</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="3">
         <v>3487</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <v>681</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
         <v>4168</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="3">
         <v>181000</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="3">
         <v>48</v>
       </c>
-      <c r="J26" s="5">
-        <v>5</v>
-      </c>
-      <c r="K26" s="5" t="s">
+      <c r="J26" s="3">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="3">
         <v>681</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="3">
         <v>3487</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="3">
         <v>18</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="3">
         <v>4150</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26" s="3">
         <v>1</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="3">
         <v>769</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="3">
         <v>18277</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" s="3">
         <v>3399</v>
       </c>
-      <c r="U26" s="5">
+      <c r="U26" s="3">
         <v>177601</v>
       </c>
-      <c r="V26" s="5"/>
-    </row>
-    <row r="27" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="3">
         <v>2</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="3">
         <v>873</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="3">
         <v>490</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <v>1363</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="3">
         <v>128500</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="3">
         <v>120</v>
       </c>
-      <c r="J27" s="5">
-        <v>5</v>
-      </c>
-      <c r="K27" s="5" t="s">
+      <c r="J27" s="3">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="3">
         <v>490</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="3">
         <v>873</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="3">
         <v>6</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="3">
         <v>1347</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="Q27" s="3">
         <v>1</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="3">
         <v>546</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="3">
         <v>34498</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T27" s="3">
         <v>817</v>
       </c>
-      <c r="U27" s="5">
+      <c r="U27" s="3">
         <v>127683</v>
       </c>
-      <c r="V27" s="5"/>
-    </row>
-    <row r="28" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <v>2</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="3">
         <v>1202</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <v>675</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <v>1877</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="3">
         <v>177000</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="3">
         <v>120</v>
       </c>
-      <c r="J28" s="5">
-        <v>5</v>
-      </c>
-      <c r="K28" s="5">
+      <c r="J28" s="3">
+        <v>5</v>
+      </c>
+      <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="3">
         <v>675</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="3">
         <v>1202</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="3">
         <v>8</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="3">
         <v>1934</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q28" s="3">
         <v>1</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="3">
         <v>752</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="3">
         <v>47545</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T28" s="3">
         <v>1125</v>
       </c>
-      <c r="U28" s="5">
+      <c r="U28" s="3">
         <v>175875</v>
       </c>
-      <c r="V28" s="5"/>
-    </row>
-    <row r="29" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <v>1</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="3">
         <v>1164</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <v>660</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>1824</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="3">
         <v>172000</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="3">
         <v>120</v>
       </c>
-      <c r="J29" s="5">
-        <v>5</v>
-      </c>
-      <c r="K29" s="5" t="s">
+      <c r="J29" s="3">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="3">
         <v>660</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="3">
         <v>1164</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="3">
         <v>16</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="3">
         <v>1850</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="3">
         <v>9</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="3">
         <v>46906</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T29" s="3">
         <v>9</v>
       </c>
-      <c r="U29" s="5">
+      <c r="U29" s="3">
         <v>172000</v>
       </c>
-      <c r="V29" s="5"/>
-    </row>
-    <row r="30" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="3">
         <v>1651</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="3">
         <v>825</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="3">
         <v>2476</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="3">
         <v>215000</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="3">
         <v>108</v>
       </c>
-      <c r="J30" s="5">
-        <v>5</v>
-      </c>
-      <c r="K30" s="5" t="s">
+      <c r="J30" s="3">
+        <v>5</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="3">
         <v>825</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="3">
         <v>1651</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="3">
         <v>21</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="3">
         <v>2464</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q30" s="3">
         <v>0</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30" s="3">
         <v>8</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="3">
         <v>52396</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T30" s="3">
         <v>8</v>
       </c>
-      <c r="U30" s="5">
+      <c r="U30" s="3">
         <v>215000</v>
       </c>
-      <c r="V30" s="5"/>
-    </row>
-    <row r="31" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>1</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="3">
         <v>1096</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="3">
         <v>621</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="3">
         <v>1717</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="3">
         <v>161900</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="3">
         <v>120</v>
       </c>
-      <c r="J31" s="5">
-        <v>5</v>
-      </c>
-      <c r="K31" s="5" t="s">
+      <c r="J31" s="3">
+        <v>5</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="3">
         <v>621</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="3">
         <v>1096</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="3">
         <v>15</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="3">
         <v>1723</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="Q31" s="3">
         <v>0</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" s="3">
         <v>10</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="3">
         <v>44146</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31" s="3">
         <v>10</v>
       </c>
-      <c r="U31" s="5">
+      <c r="U31" s="3">
         <v>161900</v>
       </c>
-      <c r="V31" s="5"/>
-    </row>
-    <row r="32" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>1</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="3">
         <v>1773</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="3">
         <v>537</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="3">
         <v>2310</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="3">
         <v>140000</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="3">
         <v>70</v>
       </c>
-      <c r="J32" s="5">
-        <v>5</v>
-      </c>
-      <c r="K32" s="5" t="s">
+      <c r="J32" s="3">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="3">
         <v>537</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="3">
         <v>1773</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="3">
         <v>19</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="3">
         <v>2277</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32" s="3">
         <v>14</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="3">
         <v>21667</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" s="3">
         <v>14</v>
       </c>
-      <c r="U32" s="5">
+      <c r="U32" s="3">
         <v>140000</v>
       </c>
-      <c r="V32" s="5"/>
-    </row>
-    <row r="33" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>2</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="3">
         <v>860</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="3">
         <v>355</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="3">
         <v>1215</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="3">
         <v>93500</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="3">
         <v>93</v>
       </c>
-      <c r="J33" s="5">
-        <v>5</v>
-      </c>
-      <c r="K33" s="5" t="s">
+      <c r="J33" s="3">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="3">
         <v>355</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="3">
         <v>860</v>
       </c>
-      <c r="O33" s="5">
-        <v>5</v>
-      </c>
-      <c r="P33" s="5">
+      <c r="O33" s="3">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>1182</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="Q33" s="3">
         <v>1</v>
       </c>
-      <c r="R33" s="5">
+      <c r="R33" s="3">
         <v>397</v>
       </c>
-      <c r="S33" s="5">
+      <c r="S33" s="3">
         <v>19065</v>
       </c>
-      <c r="T33" s="5">
+      <c r="T33" s="3">
         <v>818</v>
       </c>
-      <c r="U33" s="5">
+      <c r="U33" s="3">
         <v>92682</v>
       </c>
-      <c r="V33" s="5"/>
-    </row>
-    <row r="34" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>1</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <v>995</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="3">
         <v>564</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="3">
         <v>1559</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="3">
         <v>147000</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="3">
         <v>120</v>
       </c>
-      <c r="J34" s="5">
-        <v>5</v>
-      </c>
-      <c r="K34" s="5" t="s">
+      <c r="J34" s="3">
+        <v>5</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="3">
         <v>564</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="3">
         <v>995</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="3">
         <v>13</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="3">
         <v>1556</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="Q34" s="3">
         <v>0</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="3">
         <v>13</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="3">
         <v>40077</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="3">
         <v>13</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="3">
         <v>147000</v>
       </c>
-      <c r="V34" s="5"/>
-    </row>
-    <row r="35" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>1</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>1107</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="3">
         <v>504</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <v>1611</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="3">
         <v>131500</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="5">
-        <v>5</v>
-      </c>
-      <c r="K35" s="5" t="s">
+      <c r="J35" s="3">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="3">
         <v>504</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="3">
         <v>1107</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="3">
         <v>13</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="3">
         <v>1545</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="Q35" s="3">
         <v>0</v>
       </c>
-      <c r="R35" s="5">
+      <c r="R35" s="3">
         <v>17</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="3">
         <v>29534</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T35" s="3">
         <v>17</v>
       </c>
-      <c r="U35" s="5">
+      <c r="U35" s="3">
         <v>131500</v>
       </c>
-      <c r="V35" s="5"/>
-    </row>
-    <row r="36" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>1</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>1282</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="3">
         <v>517</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>1799</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <v>134800</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="3">
         <v>90</v>
       </c>
-      <c r="J36" s="5">
-        <v>5</v>
-      </c>
-      <c r="K36" s="5" t="s">
+      <c r="J36" s="3">
+        <v>5</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="3">
         <v>517</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="3">
         <v>1282</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="3">
         <v>15</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="3">
         <v>1790</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="Q36" s="3">
         <v>0</v>
       </c>
-      <c r="R36" s="5">
+      <c r="R36" s="3">
         <v>16</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36" s="3">
         <v>27101</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T36" s="3">
         <v>16</v>
       </c>
-      <c r="U36" s="5">
+      <c r="U36" s="3">
         <v>134800</v>
       </c>
-      <c r="V36" s="5"/>
-    </row>
-    <row r="37" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>1</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <v>4740</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="3">
         <v>2685</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3">
         <v>7425</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="3">
         <v>700000</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="3">
         <v>120</v>
       </c>
-      <c r="J37" s="5">
-        <v>5</v>
-      </c>
-      <c r="K37" s="5" t="s">
+      <c r="J37" s="3">
+        <v>5</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="3">
         <v>2685</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="3">
         <v>4740</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="3">
         <v>62</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="3">
         <v>7255</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="Q37" s="3">
         <v>0</v>
       </c>
-      <c r="R37" s="5">
+      <c r="R37" s="3">
         <v>7</v>
       </c>
-      <c r="S37" s="5">
+      <c r="S37" s="3">
         <v>190830</v>
       </c>
-      <c r="T37" s="5">
+      <c r="T37" s="3">
         <v>7</v>
       </c>
-      <c r="U37" s="5">
+      <c r="U37" s="3">
         <v>700000</v>
       </c>
-      <c r="V37" s="5"/>
-    </row>
-    <row r="38" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>2</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="3">
         <v>896</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="3">
         <v>250</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <v>1146</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="3">
         <v>66000</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="3">
         <v>66</v>
       </c>
-      <c r="J38" s="5">
-        <v>5</v>
-      </c>
-      <c r="K38" s="5" t="s">
+      <c r="J38" s="3">
+        <v>5</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="3">
         <v>250</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="3">
         <v>896</v>
       </c>
-      <c r="O38" s="5">
-        <v>5</v>
-      </c>
-      <c r="P38" s="5">
+      <c r="O38" s="3">
+        <v>5</v>
+      </c>
+      <c r="P38" s="3">
         <v>1126</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="Q38" s="3">
         <v>1</v>
       </c>
-      <c r="R38" s="5">
+      <c r="R38" s="3">
         <v>280</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S38" s="3">
         <v>9336</v>
       </c>
-      <c r="T38" s="5">
+      <c r="T38" s="3">
         <v>866</v>
       </c>
-      <c r="U38" s="5">
+      <c r="U38" s="3">
         <v>65134</v>
       </c>
-      <c r="V38" s="5"/>
-    </row>
-    <row r="39" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>1</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="3">
         <v>993</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="3">
         <v>311</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3">
         <v>1304</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="3">
         <v>81000</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="3">
         <v>72</v>
       </c>
-      <c r="J39" s="5">
-        <v>5</v>
-      </c>
-      <c r="K39" s="5" t="s">
+      <c r="J39" s="3">
+        <v>5</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="3">
         <v>311</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="3">
         <v>993</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="3">
         <v>11</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="3">
         <v>1328</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="Q39" s="3">
         <v>0</v>
       </c>
-      <c r="R39" s="5">
+      <c r="R39" s="3">
         <v>18</v>
       </c>
-      <c r="S39" s="5">
+      <c r="S39" s="3">
         <v>12912</v>
       </c>
-      <c r="T39" s="5">
+      <c r="T39" s="3">
         <v>18</v>
       </c>
-      <c r="U39" s="5">
+      <c r="U39" s="3">
         <v>81000</v>
       </c>
-      <c r="V39" s="5"/>
-    </row>
-    <row r="40" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <v>1</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="3">
         <v>1083</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="3">
         <v>614</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="3">
         <v>1697</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="3">
         <v>160000</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="3">
         <v>120</v>
       </c>
-      <c r="J40" s="5">
-        <v>5</v>
-      </c>
-      <c r="K40" s="5" t="s">
+      <c r="J40" s="3">
+        <v>5</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="3">
         <v>614</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="3">
         <v>1083</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="3">
         <v>14</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40" s="3">
         <v>1682</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="Q40" s="3">
         <v>0</v>
       </c>
-      <c r="R40" s="5">
+      <c r="R40" s="3">
         <v>12</v>
       </c>
-      <c r="S40" s="5">
+      <c r="S40" s="3">
         <v>43625</v>
       </c>
-      <c r="T40" s="5">
+      <c r="T40" s="3">
         <v>12</v>
       </c>
-      <c r="U40" s="5">
+      <c r="U40" s="3">
         <v>160000</v>
       </c>
-      <c r="V40" s="5"/>
-    </row>
-    <row r="41" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="3">
         <v>2</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="3">
         <v>890</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="3">
         <v>499</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="3">
         <v>1389</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="3">
         <v>131000</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="3">
         <v>120</v>
       </c>
-      <c r="J41" s="5">
-        <v>5</v>
-      </c>
-      <c r="K41" s="5" t="s">
+      <c r="J41" s="3">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="3">
         <v>499</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="3">
         <v>890</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="3">
         <v>6</v>
       </c>
-      <c r="P41" s="5">
+      <c r="P41" s="3">
         <v>1453</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="Q41" s="3">
         <v>1</v>
       </c>
-      <c r="R41" s="5">
+      <c r="R41" s="3">
         <v>556</v>
       </c>
-      <c r="S41" s="5">
+      <c r="S41" s="3">
         <v>35188</v>
       </c>
-      <c r="T41" s="5">
+      <c r="T41" s="3">
         <v>833</v>
       </c>
-      <c r="U41" s="5">
+      <c r="U41" s="3">
         <v>130167</v>
       </c>
-      <c r="V41" s="5"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1307</v>
+      </c>
+      <c r="F42" s="3">
+        <v>192</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1499</v>
+      </c>
+      <c r="H42" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>36</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M42" s="3">
+        <v>192</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1307</v>
+      </c>
+      <c r="O42" s="3">
+        <v>13</v>
+      </c>
+      <c r="P42" s="3">
+        <v>1465</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
+        <v>3930</v>
+      </c>
+      <c r="T42" s="3">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>942</v>
+      </c>
+      <c r="F43" s="3">
+        <v>430</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1372</v>
+      </c>
+      <c r="H43" s="3">
+        <v>112000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M43" s="3">
+        <v>430</v>
+      </c>
+      <c r="N43" s="3">
+        <v>942</v>
+      </c>
+      <c r="O43" s="3">
+        <v>11</v>
+      </c>
+      <c r="P43" s="3">
+        <v>1322</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>1</v>
+      </c>
+      <c r="S43" s="3">
+        <v>25150</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1</v>
+      </c>
+      <c r="U43" s="3">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>918</v>
+      </c>
+      <c r="F44" s="3">
+        <v>192</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1110</v>
+      </c>
+      <c r="H44" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>50</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M44" s="3">
+        <v>192</v>
+      </c>
+      <c r="N44" s="3">
+        <v>918</v>
+      </c>
+      <c r="O44" s="3">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1088</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3">
+        <v>5478</v>
+      </c>
+      <c r="T44" s="3">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>918</v>
+      </c>
+      <c r="F45" s="3">
+        <v>192</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1110</v>
+      </c>
+      <c r="H45" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>50</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M45" s="3">
+        <v>192</v>
+      </c>
+      <c r="N45" s="3">
+        <v>918</v>
+      </c>
+      <c r="O45" s="3">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
+        <v>1088</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3">
+        <v>5478</v>
+      </c>
+      <c r="T45" s="3">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F46" s="3">
+        <v>192</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2194</v>
+      </c>
+      <c r="H46" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>24</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M46" s="3">
+        <v>192</v>
+      </c>
+      <c r="N46" s="3">
+        <v>2002</v>
+      </c>
+      <c r="O46" s="3">
+        <v>18</v>
+      </c>
+      <c r="P46" s="3">
+        <v>2165</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>6</v>
+      </c>
+      <c r="S46" s="3">
+        <v>2627</v>
+      </c>
+      <c r="T46" s="3">
+        <v>6</v>
+      </c>
+      <c r="U46" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>902</v>
+      </c>
+      <c r="F47" s="3">
+        <v>230</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1132</v>
+      </c>
+      <c r="H47" s="3">
+        <v>60000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>60</v>
+      </c>
+      <c r="J47" s="3">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M47" s="3">
+        <v>230</v>
+      </c>
+      <c r="N47" s="3">
+        <v>902</v>
+      </c>
+      <c r="O47" s="3">
+        <v>10</v>
+      </c>
+      <c r="P47" s="3">
+        <v>1138</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>2</v>
+      </c>
+      <c r="S47" s="3">
+        <v>7926</v>
+      </c>
+      <c r="T47" s="3">
+        <v>2</v>
+      </c>
+      <c r="U47" s="3">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>813</v>
+      </c>
+      <c r="F48" s="3">
+        <v>460</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1273</v>
+      </c>
+      <c r="H48" s="3">
+        <v>120000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>120</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M48" s="3">
+        <v>460</v>
+      </c>
+      <c r="N48" s="3">
+        <v>813</v>
+      </c>
+      <c r="O48" s="3">
+        <v>11</v>
+      </c>
+      <c r="P48" s="3">
+        <v>1223</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>32710</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>120000</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
